--- a/Git-Complete/検証.xlsx
+++ b/Git-Complete/検証.xlsx
@@ -5,19 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\Project_Git-Complete\Git-Complete\work_temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\Git-Complete\Git-Complete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61836F94-6C8B-44E1-847B-82DF55FBAA86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32C791C-EEDE-4403-98BA-0D8E29F32352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="1395" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="7" r:id="rId1"/>
-    <sheet name="コマンドの取得" sheetId="8" r:id="rId2"/>
-    <sheet name="オプションの取得" sheetId="9" r:id="rId3"/>
-    <sheet name="パターン検討" sheetId="5" r:id="rId4"/>
-    <sheet name="sample_git-status" sheetId="3" r:id="rId5"/>
+    <sheet name="コマンド一覧" sheetId="12" r:id="rId2"/>
+    <sheet name="コマンドの取得" sheetId="8" r:id="rId3"/>
+    <sheet name="オプションの取得" sheetId="9" r:id="rId4"/>
+    <sheet name="パターン検討" sheetId="5" r:id="rId5"/>
+    <sheet name="sample_git-status" sheetId="3" r:id="rId6"/>
+    <sheet name="git公式ヘルプから取得" sheetId="10" r:id="rId7"/>
+    <sheet name="git.cから取得" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="681">
   <si>
     <t>[switch]</t>
   </si>
@@ -351,12 +354,1889 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>git-add[1]</t>
+  </si>
+  <si>
+    <t>Add file contents to the index</t>
+  </si>
+  <si>
+    <t>git-am[1]</t>
+  </si>
+  <si>
+    <t>Apply a series of patches from a mailbox</t>
+  </si>
+  <si>
+    <t>git-archive[1]</t>
+  </si>
+  <si>
+    <t>Create an archive of files from a named tree</t>
+  </si>
+  <si>
+    <t>git-bisect[1]</t>
+  </si>
+  <si>
+    <t>Use binary search to find the commit that introduced a bug</t>
+  </si>
+  <si>
+    <t>git-branch[1]</t>
+  </si>
+  <si>
+    <t>List, create, or delete branches</t>
+  </si>
+  <si>
+    <t>git-bundle[1]</t>
+  </si>
+  <si>
+    <t>Move objects and refs by archive</t>
+  </si>
+  <si>
+    <t>git-checkout[1]</t>
+  </si>
+  <si>
+    <t>Switch branches or restore working tree files</t>
+  </si>
+  <si>
+    <t>git-cherry-pick[1]</t>
+  </si>
+  <si>
+    <t>Apply the changes introduced by some existing commits</t>
+  </si>
+  <si>
+    <t>git-citool[1]</t>
+  </si>
+  <si>
+    <t>Graphical alternative to git-commit</t>
+  </si>
+  <si>
+    <t>git-clean[1]</t>
+  </si>
+  <si>
+    <t>Remove untracked files from the working tree</t>
+  </si>
+  <si>
+    <t>git-clone[1]</t>
+  </si>
+  <si>
+    <t>Clone a repository into a new directory</t>
+  </si>
+  <si>
+    <t>git-commit[1]</t>
+  </si>
+  <si>
+    <t>Record changes to the repository</t>
+  </si>
+  <si>
+    <t>git-describe[1]</t>
+  </si>
+  <si>
+    <t>Give an object a human readable name based on an available ref</t>
+  </si>
+  <si>
+    <t>git-diff[1]</t>
+  </si>
+  <si>
+    <t>Show changes between commits, commit and working tree, etc</t>
+  </si>
+  <si>
+    <t>git-fetch[1]</t>
+  </si>
+  <si>
+    <t>Download objects and refs from another repository</t>
+  </si>
+  <si>
+    <t>git-format-patch[1]</t>
+  </si>
+  <si>
+    <t>Prepare patches for e-mail submission</t>
+  </si>
+  <si>
+    <t>git-gc[1]</t>
+  </si>
+  <si>
+    <t>Cleanup unnecessary files and optimize the local repository</t>
+  </si>
+  <si>
+    <t>git-grep[1]</t>
+  </si>
+  <si>
+    <t>Print lines matching a pattern</t>
+  </si>
+  <si>
+    <t>git-gui[1]</t>
+  </si>
+  <si>
+    <t>A portable graphical interface to Git</t>
+  </si>
+  <si>
+    <t>git-init[1]</t>
+  </si>
+  <si>
+    <t>Create an empty Git repository or reinitialize an existing one</t>
+  </si>
+  <si>
+    <t>gitk[1]</t>
+  </si>
+  <si>
+    <t>The Git repository browser</t>
+  </si>
+  <si>
+    <t>git-log[1]</t>
+  </si>
+  <si>
+    <t>Show commit logs</t>
+  </si>
+  <si>
+    <t>git-merge[1]</t>
+  </si>
+  <si>
+    <t>Join two or more development histories together</t>
+  </si>
+  <si>
+    <t>git-mv[1]</t>
+  </si>
+  <si>
+    <t>Move or rename a file, a directory, or a symlink</t>
+  </si>
+  <si>
+    <t>git-notes[1]</t>
+  </si>
+  <si>
+    <t>Add or inspect object notes</t>
+  </si>
+  <si>
+    <t>git-pull[1]</t>
+  </si>
+  <si>
+    <t>Fetch from and integrate with another repository or a local branch</t>
+  </si>
+  <si>
+    <t>git-push[1]</t>
+  </si>
+  <si>
+    <t>Update remote refs along with associated objects</t>
+  </si>
+  <si>
+    <t>git-range-diff[1]</t>
+  </si>
+  <si>
+    <t>Compare two commit ranges (e.g. two versions of a branch)</t>
+  </si>
+  <si>
+    <t>git-rebase[1]</t>
+  </si>
+  <si>
+    <t>Reapply commits on top of another base tip</t>
+  </si>
+  <si>
+    <t>git-reset[1]</t>
+  </si>
+  <si>
+    <t>Reset current HEAD to the specified state</t>
+  </si>
+  <si>
+    <t>git-restore[1]</t>
+  </si>
+  <si>
+    <t>Restore working tree files</t>
+  </si>
+  <si>
+    <t>git-revert[1]</t>
+  </si>
+  <si>
+    <t>Revert some existing commits</t>
+  </si>
+  <si>
+    <t>git-rm[1]</t>
+  </si>
+  <si>
+    <t>Remove files from the working tree and from the index</t>
+  </si>
+  <si>
+    <t>git-shortlog[1]</t>
+  </si>
+  <si>
+    <t>git-show[1]</t>
+  </si>
+  <si>
+    <t>Show various types of objects</t>
+  </si>
+  <si>
+    <t>git-sparse-checkout[1]</t>
+  </si>
+  <si>
+    <t>Initialize and modify the sparse-checkout</t>
+  </si>
+  <si>
+    <t>git-stash[1]</t>
+  </si>
+  <si>
+    <t>Stash the changes in a dirty working directory away</t>
+  </si>
+  <si>
+    <t>git-status[1]</t>
+  </si>
+  <si>
+    <t>Show the working tree status</t>
+  </si>
+  <si>
+    <t>git-submodule[1]</t>
+  </si>
+  <si>
+    <t>Initialize, update or inspect submodules</t>
+  </si>
+  <si>
+    <t>git-switch[1]</t>
+  </si>
+  <si>
+    <t>Switch branches</t>
+  </si>
+  <si>
+    <t>git-tag[1]</t>
+  </si>
+  <si>
+    <t>Create, list, delete or verify a tag object signed with GPG</t>
+  </si>
+  <si>
+    <t>git-worktree[1]</t>
+  </si>
+  <si>
+    <t>Manage multiple working trees</t>
+  </si>
+  <si>
+    <t>Ancillary Commands</t>
+  </si>
+  <si>
+    <t>Manipulators:</t>
+  </si>
+  <si>
+    <t>git-config[1]</t>
+  </si>
+  <si>
+    <t>Get and set repository or global options</t>
+  </si>
+  <si>
+    <t>git-fast-export[1]</t>
+  </si>
+  <si>
+    <t>Git data exporter</t>
+  </si>
+  <si>
+    <t>git-fast-import[1]</t>
+  </si>
+  <si>
+    <t>Backend for fast Git data importers</t>
+  </si>
+  <si>
+    <t>git-filter-branch[1]</t>
+  </si>
+  <si>
+    <t>Rewrite branches</t>
+  </si>
+  <si>
+    <t>git-mergetool[1]</t>
+  </si>
+  <si>
+    <t>Run merge conflict resolution tools to resolve merge conflicts</t>
+  </si>
+  <si>
+    <t>git-pack-refs[1]</t>
+  </si>
+  <si>
+    <t>Pack heads and tags for efficient repository access</t>
+  </si>
+  <si>
+    <t>git-prune[1]</t>
+  </si>
+  <si>
+    <t>Prune all unreachable objects from the object database</t>
+  </si>
+  <si>
+    <t>git-reflog[1]</t>
+  </si>
+  <si>
+    <t>Manage reflog information</t>
+  </si>
+  <si>
+    <t>git-remote[1]</t>
+  </si>
+  <si>
+    <t>Manage set of tracked repositories</t>
+  </si>
+  <si>
+    <t>git-repack[1]</t>
+  </si>
+  <si>
+    <t>Pack unpacked objects in a repository</t>
+  </si>
+  <si>
+    <t>git-replace[1]</t>
+  </si>
+  <si>
+    <t>Create, list, delete refs to replace objects</t>
+  </si>
+  <si>
+    <t>Interrogators:</t>
+  </si>
+  <si>
+    <t>git-annotate[1]</t>
+  </si>
+  <si>
+    <t>Annotate file lines with commit information</t>
+  </si>
+  <si>
+    <t>git-blame[1]</t>
+  </si>
+  <si>
+    <t>Show what revision and author last modified each line of a file</t>
+  </si>
+  <si>
+    <t>git-bugreport[1]</t>
+  </si>
+  <si>
+    <t>Collect information for user to file a bug report</t>
+  </si>
+  <si>
+    <t>git-count-objects[1]</t>
+  </si>
+  <si>
+    <t>Count unpacked number of objects and their disk consumption</t>
+  </si>
+  <si>
+    <t>git-difftool[1]</t>
+  </si>
+  <si>
+    <t>Show changes using common diff tools</t>
+  </si>
+  <si>
+    <t>git-fsck[1]</t>
+  </si>
+  <si>
+    <t>Verifies the connectivity and validity of the objects in the database</t>
+  </si>
+  <si>
+    <t>git-help[1]</t>
+  </si>
+  <si>
+    <t>Display help information about Git</t>
+  </si>
+  <si>
+    <t>git-instaweb[1]</t>
+  </si>
+  <si>
+    <t>Instantly browse your working repository in gitweb</t>
+  </si>
+  <si>
+    <t>git-merge-tree[1]</t>
+  </si>
+  <si>
+    <t>Show three-way merge without touching index</t>
+  </si>
+  <si>
+    <t>git-rerere[1]</t>
+  </si>
+  <si>
+    <t>Reuse recorded resolution of conflicted merges</t>
+  </si>
+  <si>
+    <t>git-show-branch[1]</t>
+  </si>
+  <si>
+    <t>Show branches and their commits</t>
+  </si>
+  <si>
+    <t>git-verify-commit[1]</t>
+  </si>
+  <si>
+    <t>Check the GPG signature of commits</t>
+  </si>
+  <si>
+    <t>git-verify-tag[1]</t>
+  </si>
+  <si>
+    <t>Check the GPG signature of tags</t>
+  </si>
+  <si>
+    <t>gitweb[1]</t>
+  </si>
+  <si>
+    <t>Git web interface (web frontend to Git repositories)</t>
+  </si>
+  <si>
+    <t>git-whatchanged[1]</t>
+  </si>
+  <si>
+    <t>Show logs with difference each commit introduces</t>
+  </si>
+  <si>
+    <t>Interacting with Others</t>
+  </si>
+  <si>
+    <t>These commands are to interact with foreign SCM and with other people via patch over e-mail.</t>
+  </si>
+  <si>
+    <t>git-archimport[1]</t>
+  </si>
+  <si>
+    <t>Import a GNU Arch repository into Git</t>
+  </si>
+  <si>
+    <t>git-cvsexportcommit[1]</t>
+  </si>
+  <si>
+    <t>Export a single commit to a CVS checkout</t>
+  </si>
+  <si>
+    <t>git-cvsimport[1]</t>
+  </si>
+  <si>
+    <t>Salvage your data out of another SCM people love to hate</t>
+  </si>
+  <si>
+    <t>git-cvsserver[1]</t>
+  </si>
+  <si>
+    <t>A CVS server emulator for Git</t>
+  </si>
+  <si>
+    <t>git-imap-send[1]</t>
+  </si>
+  <si>
+    <t>Send a collection of patches from stdin to an IMAP folder</t>
+  </si>
+  <si>
+    <t>git-p4[1]</t>
+  </si>
+  <si>
+    <t>Import from and submit to Perforce repositories</t>
+  </si>
+  <si>
+    <t>git-quiltimport[1]</t>
+  </si>
+  <si>
+    <t>Applies a quilt patchset onto the current branch</t>
+  </si>
+  <si>
+    <t>git-request-pull[1]</t>
+  </si>
+  <si>
+    <t>Generates a summary of pending changes</t>
+  </si>
+  <si>
+    <t>git-send-email[1]</t>
+  </si>
+  <si>
+    <t>Send a collection of patches as emails</t>
+  </si>
+  <si>
+    <t>git-svn[1]</t>
+  </si>
+  <si>
+    <t>Bidirectional operation between a Subversion repository and Git</t>
+  </si>
+  <si>
+    <t>Reset, restore and revert</t>
+  </si>
+  <si>
+    <t>Low-level commands (plumbing)</t>
+  </si>
+  <si>
+    <t>The interface (input, output, set of options and the semantics) to these low-level commands are meant to be a lot more stable than Porcelain level commands, because these commands are primarily for scripted use. The interface to Porcelain commands on the other hand are subject to change in order to improve the end user experience.</t>
+  </si>
+  <si>
+    <t>The following description divides the low-level commands into commands that manipulate objects (in the repository, index, and working tree), commands that interrogate and compare objects, and commands that move objects and references between repositories.</t>
+  </si>
+  <si>
+    <t>Manipulation commands</t>
+  </si>
+  <si>
+    <t>git-apply[1]</t>
+  </si>
+  <si>
+    <t>Apply a patch to files and/or to the index</t>
+  </si>
+  <si>
+    <t>git-checkout-index[1]</t>
+  </si>
+  <si>
+    <t>Copy files from the index to the working tree</t>
+  </si>
+  <si>
+    <t>git-commit-graph[1]</t>
+  </si>
+  <si>
+    <t>Write and verify Git commit-graph files</t>
+  </si>
+  <si>
+    <t>git-commit-tree[1]</t>
+  </si>
+  <si>
+    <t>Create a new commit object</t>
+  </si>
+  <si>
+    <t>git-hash-object[1]</t>
+  </si>
+  <si>
+    <t>Compute object ID and optionally creates a blob from a file</t>
+  </si>
+  <si>
+    <t>git-index-pack[1]</t>
+  </si>
+  <si>
+    <t>Build pack index file for an existing packed archive</t>
+  </si>
+  <si>
+    <t>git-merge-file[1]</t>
+  </si>
+  <si>
+    <t>Run a three-way file merge</t>
+  </si>
+  <si>
+    <t>git-merge-index[1]</t>
+  </si>
+  <si>
+    <t>Run a merge for files needing merging</t>
+  </si>
+  <si>
+    <t>git-multi-pack-index[1]</t>
+  </si>
+  <si>
+    <t>Write and verify multi-pack-indexes</t>
+  </si>
+  <si>
+    <t>git-mktag[1]</t>
+  </si>
+  <si>
+    <t>Creates a tag object</t>
+  </si>
+  <si>
+    <t>git-mktree[1]</t>
+  </si>
+  <si>
+    <t>Build a tree-object from ls-tree formatted text</t>
+  </si>
+  <si>
+    <t>git-pack-objects[1]</t>
+  </si>
+  <si>
+    <t>Create a packed archive of objects</t>
+  </si>
+  <si>
+    <t>git-prune-packed[1]</t>
+  </si>
+  <si>
+    <t>Remove extra objects that are already in pack files</t>
+  </si>
+  <si>
+    <t>git-read-tree[1]</t>
+  </si>
+  <si>
+    <t>Reads tree information into the index</t>
+  </si>
+  <si>
+    <t>git-symbolic-ref[1]</t>
+  </si>
+  <si>
+    <t>Read, modify and delete symbolic refs</t>
+  </si>
+  <si>
+    <t>git-unpack-objects[1]</t>
+  </si>
+  <si>
+    <t>Unpack objects from a packed archive</t>
+  </si>
+  <si>
+    <t>git-update-index[1]</t>
+  </si>
+  <si>
+    <t>Register file contents in the working tree to the index</t>
+  </si>
+  <si>
+    <t>git-update-ref[1]</t>
+  </si>
+  <si>
+    <t>Update the object name stored in a ref safely</t>
+  </si>
+  <si>
+    <t>git-write-tree[1]</t>
+  </si>
+  <si>
+    <t>Create a tree object from the current index</t>
+  </si>
+  <si>
+    <t>Interrogation commands</t>
+  </si>
+  <si>
+    <t>git-cat-file[1]</t>
+  </si>
+  <si>
+    <t>Provide content or type and size information for repository objects</t>
+  </si>
+  <si>
+    <t>git-cherry[1]</t>
+  </si>
+  <si>
+    <t>Find commits yet to be applied to upstream</t>
+  </si>
+  <si>
+    <t>git-diff-files[1]</t>
+  </si>
+  <si>
+    <t>Compares files in the working tree and the index</t>
+  </si>
+  <si>
+    <t>git-diff-index[1]</t>
+  </si>
+  <si>
+    <t>Compare a tree to the working tree or index</t>
+  </si>
+  <si>
+    <t>git-diff-tree[1]</t>
+  </si>
+  <si>
+    <t>Compares the content and mode of blobs found via two tree objects</t>
+  </si>
+  <si>
+    <t>git-for-each-ref[1]</t>
+  </si>
+  <si>
+    <t>Output information on each ref</t>
+  </si>
+  <si>
+    <t>git-get-tar-commit-id[1]</t>
+  </si>
+  <si>
+    <t>Extract commit ID from an archive created using git-archive</t>
+  </si>
+  <si>
+    <t>git-ls-files[1]</t>
+  </si>
+  <si>
+    <t>Show information about files in the index and the working tree</t>
+  </si>
+  <si>
+    <t>git-ls-remote[1]</t>
+  </si>
+  <si>
+    <t>List references in a remote repository</t>
+  </si>
+  <si>
+    <t>git-ls-tree[1]</t>
+  </si>
+  <si>
+    <t>List the contents of a tree object</t>
+  </si>
+  <si>
+    <t>git-merge-base[1]</t>
+  </si>
+  <si>
+    <t>Find as good common ancestors as possible for a merge</t>
+  </si>
+  <si>
+    <t>git-name-rev[1]</t>
+  </si>
+  <si>
+    <t>Find symbolic names for given revs</t>
+  </si>
+  <si>
+    <t>git-pack-redundant[1]</t>
+  </si>
+  <si>
+    <t>Find redundant pack files</t>
+  </si>
+  <si>
+    <t>git-rev-list[1]</t>
+  </si>
+  <si>
+    <t>Lists commit objects in reverse chronological order</t>
+  </si>
+  <si>
+    <t>git-rev-parse[1]</t>
+  </si>
+  <si>
+    <t>Pick out and massage parameters</t>
+  </si>
+  <si>
+    <t>git-show-index[1]</t>
+  </si>
+  <si>
+    <t>Show packed archive index</t>
+  </si>
+  <si>
+    <t>git-show-ref[1]</t>
+  </si>
+  <si>
+    <t>List references in a local repository</t>
+  </si>
+  <si>
+    <t>git-unpack-file[1]</t>
+  </si>
+  <si>
+    <t>Creates a temporary file with a blob’s contents</t>
+  </si>
+  <si>
+    <t>git-var[1]</t>
+  </si>
+  <si>
+    <t>Show a Git logical variable</t>
+  </si>
+  <si>
+    <t>git-verify-pack[1]</t>
+  </si>
+  <si>
+    <t>Validate packed Git archive files</t>
+  </si>
+  <si>
+    <t>In general, the interrogate commands do not touch the files in the working tree.</t>
+  </si>
+  <si>
+    <t>Syncing repositories</t>
+  </si>
+  <si>
+    <t>git-daemon[1]</t>
+  </si>
+  <si>
+    <t>A really simple server for Git repositories</t>
+  </si>
+  <si>
+    <t>git-fetch-pack[1]</t>
+  </si>
+  <si>
+    <t>Receive missing objects from another repository</t>
+  </si>
+  <si>
+    <t>git-http-backend[1]</t>
+  </si>
+  <si>
+    <t>Server side implementation of Git over HTTP</t>
+  </si>
+  <si>
+    <t>git-send-pack[1]</t>
+  </si>
+  <si>
+    <t>Push objects over Git protocol to another repository</t>
+  </si>
+  <si>
+    <t>git-update-server-info[1]</t>
+  </si>
+  <si>
+    <t>Update auxiliary info file to help dumb servers</t>
+  </si>
+  <si>
+    <t>The following are helper commands used by the above; end users typically do not use them directly.</t>
+  </si>
+  <si>
+    <t>git-http-fetch[1]</t>
+  </si>
+  <si>
+    <t>Download from a remote Git repository via HTTP</t>
+  </si>
+  <si>
+    <t>git-http-push[1]</t>
+  </si>
+  <si>
+    <t>Push objects over HTTP/DAV to another repository</t>
+  </si>
+  <si>
+    <t>git-parse-remote[1]</t>
+  </si>
+  <si>
+    <t>Routines to help parsing remote repository access parameters</t>
+  </si>
+  <si>
+    <t>git-receive-pack[1]</t>
+  </si>
+  <si>
+    <t>Receive what is pushed into the repository</t>
+  </si>
+  <si>
+    <t>git-shell[1]</t>
+  </si>
+  <si>
+    <t>Restricted login shell for Git-only SSH access</t>
+  </si>
+  <si>
+    <t>git-upload-archive[1]</t>
+  </si>
+  <si>
+    <t>Send archive back to git-archive</t>
+  </si>
+  <si>
+    <t>git-upload-pack[1]</t>
+  </si>
+  <si>
+    <t>Send objects packed back to git-fetch-pack</t>
+  </si>
+  <si>
+    <t>Internal helper commands</t>
+  </si>
+  <si>
+    <t>These are internal helper commands used by other commands; end users typically do not use them directly.</t>
+  </si>
+  <si>
+    <t>git-check-attr[1]</t>
+  </si>
+  <si>
+    <t>Display gitattributes information</t>
+  </si>
+  <si>
+    <t>git-check-ignore[1]</t>
+  </si>
+  <si>
+    <t>Debug gitignore / exclude files</t>
+  </si>
+  <si>
+    <t>git-check-mailmap[1]</t>
+  </si>
+  <si>
+    <t>Show canonical names and email addresses of contacts</t>
+  </si>
+  <si>
+    <t>git-check-ref-format[1]</t>
+  </si>
+  <si>
+    <t>Ensures that a reference name is well formed</t>
+  </si>
+  <si>
+    <t>git-column[1]</t>
+  </si>
+  <si>
+    <t>Display data in columns</t>
+  </si>
+  <si>
+    <t>git-credential[1]</t>
+  </si>
+  <si>
+    <t>Retrieve and store user credentials</t>
+  </si>
+  <si>
+    <t>git-credential-cache[1]</t>
+  </si>
+  <si>
+    <t>Helper to temporarily store passwords in memory</t>
+  </si>
+  <si>
+    <t>git-credential-store[1]</t>
+  </si>
+  <si>
+    <t>Helper to store credentials on disk</t>
+  </si>
+  <si>
+    <t>git-fmt-merge-msg[1]</t>
+  </si>
+  <si>
+    <t>Produce a merge commit message</t>
+  </si>
+  <si>
+    <t>git-interpret-trailers[1]</t>
+  </si>
+  <si>
+    <t>Add or parse structured information in commit messages</t>
+  </si>
+  <si>
+    <t>git-mailinfo[1]</t>
+  </si>
+  <si>
+    <t>Extracts patch and authorship from a single e-mail message</t>
+  </si>
+  <si>
+    <t>git-mailsplit[1]</t>
+  </si>
+  <si>
+    <t>Simple UNIX mbox splitter program</t>
+  </si>
+  <si>
+    <t>git-merge-one-file[1]</t>
+  </si>
+  <si>
+    <t>The standard helper program to use with git-merge-index</t>
+  </si>
+  <si>
+    <t>git-patch-id[1]</t>
+  </si>
+  <si>
+    <t>Compute unique ID for a patch</t>
+  </si>
+  <si>
+    <t>git-sh-i18n[1]</t>
+  </si>
+  <si>
+    <t>Git’s i18n setup code for shell scripts</t>
+  </si>
+  <si>
+    <t>git-sh-setup[1]</t>
+  </si>
+  <si>
+    <t>Common Git shell script setup code</t>
+  </si>
+  <si>
+    <t>git-stripspace[1]</t>
+  </si>
+  <si>
+    <t>Remove unnecessary whitespace</t>
+  </si>
+  <si>
+    <t>Summarize git log output</t>
+  </si>
+  <si>
+    <t>There are three commands with similar names: git reset, git restore and git revert.</t>
+  </si>
+  <si>
+    <t>git-revert[1] is about making a new commit that reverts the changes made by other commits.</t>
+  </si>
+  <si>
+    <t>git-restore[1] is about restoring files in the working tree from either the index or another commit. This command does not update your branch. The command can also be used to restore files in the index from another commit.</t>
+  </si>
+  <si>
+    <t>git-reset[1] is about updating your branch, moving the tip in order to add or remove commits from the branch. This operation changes the commit history.</t>
+  </si>
+  <si>
+    <t>git reset can also be used to restore the index, overlapping with git restore.</t>
+  </si>
+  <si>
+    <t>Although Git includes its own porcelain layer, its low-level commands are sufficient to support development of alternative porcelains. Developers of such porcelains might start by reading about git-update-index[1] and git-read-tree[1].</t>
+  </si>
+  <si>
+    <t>https://git-scm.com/docs/git#_git_commands</t>
+  </si>
+  <si>
+    <t>High-level commands (porcelain)</t>
+  </si>
+  <si>
+    <t>We separate the porcelain commands into the main commands and some ancillary user utilities.</t>
+  </si>
+  <si>
+    <t>Main porcelain commands</t>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>command</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>archive</t>
+  </si>
+  <si>
+    <t>bisect</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>bundle</t>
+  </si>
+  <si>
+    <t>checkout</t>
+  </si>
+  <si>
+    <t>cherry-pick</t>
+  </si>
+  <si>
+    <t>citool</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>clone</t>
+  </si>
+  <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>fetch</t>
+  </si>
+  <si>
+    <t>format-patch</t>
+  </si>
+  <si>
+    <t>gc</t>
+  </si>
+  <si>
+    <t>grep</t>
+  </si>
+  <si>
+    <t>gui</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>merge</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>range-diff</t>
+  </si>
+  <si>
+    <t>rebase</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>restore</t>
+  </si>
+  <si>
+    <t>revert</t>
+  </si>
+  <si>
+    <t>rm</t>
+  </si>
+  <si>
+    <t>shortlog</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>sparse-checkout</t>
+  </si>
+  <si>
+    <t>stash</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>submodule</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>worktree</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>fast-export</t>
+  </si>
+  <si>
+    <t>fast-import</t>
+  </si>
+  <si>
+    <t>filter-branch</t>
+  </si>
+  <si>
+    <t>mergetool</t>
+  </si>
+  <si>
+    <t>pack-refs</t>
+  </si>
+  <si>
+    <t>prune</t>
+  </si>
+  <si>
+    <t>reflog</t>
+  </si>
+  <si>
+    <t>remote</t>
+  </si>
+  <si>
+    <t>repack</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>annotate</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>bugreport</t>
+  </si>
+  <si>
+    <t>count-objects</t>
+  </si>
+  <si>
+    <t>difftool</t>
+  </si>
+  <si>
+    <t>fsck</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>instaweb</t>
+  </si>
+  <si>
+    <t>merge-tree</t>
+  </si>
+  <si>
+    <t>rerere</t>
+  </si>
+  <si>
+    <t>show-branch</t>
+  </si>
+  <si>
+    <t>verify-commit</t>
+  </si>
+  <si>
+    <t>verify-tag</t>
+  </si>
+  <si>
+    <t>eb</t>
+  </si>
+  <si>
+    <t>whatchanged</t>
+  </si>
+  <si>
+    <t>archimport</t>
+  </si>
+  <si>
+    <t>cvsexportcommit</t>
+  </si>
+  <si>
+    <t>cvsimport</t>
+  </si>
+  <si>
+    <t>cvsserver</t>
+  </si>
+  <si>
+    <t>imap-send</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>quiltimport</t>
+  </si>
+  <si>
+    <t>request-pull</t>
+  </si>
+  <si>
+    <t>send-email</t>
+  </si>
+  <si>
+    <t>svn</t>
+  </si>
+  <si>
+    <t>apply</t>
+  </si>
+  <si>
+    <t>checkout-index</t>
+  </si>
+  <si>
+    <t>commit-graph</t>
+  </si>
+  <si>
+    <t>commit-tree</t>
+  </si>
+  <si>
+    <t>hash-object</t>
+  </si>
+  <si>
+    <t>index-pack</t>
+  </si>
+  <si>
+    <t>merge-file</t>
+  </si>
+  <si>
+    <t>merge-index</t>
+  </si>
+  <si>
+    <t>multi-pack-index</t>
+  </si>
+  <si>
+    <t>mktag</t>
+  </si>
+  <si>
+    <t>mktree</t>
+  </si>
+  <si>
+    <t>pack-objects</t>
+  </si>
+  <si>
+    <t>prune-packed</t>
+  </si>
+  <si>
+    <t>read-tree</t>
+  </si>
+  <si>
+    <t>symbolic-ref</t>
+  </si>
+  <si>
+    <t>unpack-objects</t>
+  </si>
+  <si>
+    <t>update-index</t>
+  </si>
+  <si>
+    <t>update-ref</t>
+  </si>
+  <si>
+    <t>write-tree</t>
+  </si>
+  <si>
+    <t>cat-file</t>
+  </si>
+  <si>
+    <t>cherry</t>
+  </si>
+  <si>
+    <t>diff-files</t>
+  </si>
+  <si>
+    <t>diff-index</t>
+  </si>
+  <si>
+    <t>diff-tree</t>
+  </si>
+  <si>
+    <t>for-each-ref</t>
+  </si>
+  <si>
+    <t>get-tar-commit-id</t>
+  </si>
+  <si>
+    <t>ls-files</t>
+  </si>
+  <si>
+    <t>ls-remote</t>
+  </si>
+  <si>
+    <t>ls-tree</t>
+  </si>
+  <si>
+    <t>merge-base</t>
+  </si>
+  <si>
+    <t>name-rev</t>
+  </si>
+  <si>
+    <t>pack-redundant</t>
+  </si>
+  <si>
+    <t>rev-list</t>
+  </si>
+  <si>
+    <t>rev-parse</t>
+  </si>
+  <si>
+    <t>show-index</t>
+  </si>
+  <si>
+    <t>show-ref</t>
+  </si>
+  <si>
+    <t>unpack-file</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>verify-pack</t>
+  </si>
+  <si>
+    <t>daemon</t>
+  </si>
+  <si>
+    <t>fetch-pack</t>
+  </si>
+  <si>
+    <t>http-backend</t>
+  </si>
+  <si>
+    <t>send-pack</t>
+  </si>
+  <si>
+    <t>update-server-info</t>
+  </si>
+  <si>
+    <t>http-fetch</t>
+  </si>
+  <si>
+    <t>http-push</t>
+  </si>
+  <si>
+    <t>parse-remote</t>
+  </si>
+  <si>
+    <t>receive-pack</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>upload-archive</t>
+  </si>
+  <si>
+    <t>upload-pack</t>
+  </si>
+  <si>
+    <t>check-attr</t>
+  </si>
+  <si>
+    <t>check-ignore</t>
+  </si>
+  <si>
+    <t>check-mailmap</t>
+  </si>
+  <si>
+    <t>check-ref-format</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>credential</t>
+  </si>
+  <si>
+    <t>credential-cache</t>
+  </si>
+  <si>
+    <t>credential-store</t>
+  </si>
+  <si>
+    <t>fmt-merge-msg</t>
+  </si>
+  <si>
+    <t>interpret-trailers</t>
+  </si>
+  <si>
+    <t>mailinfo</t>
+  </si>
+  <si>
+    <t>mailsplit</t>
+  </si>
+  <si>
+    <t>merge-one-file</t>
+  </si>
+  <si>
+    <t>patch-id</t>
+  </si>
+  <si>
+    <t>sh-i18n</t>
+  </si>
+  <si>
+    <t>sh-setup</t>
+  </si>
+  <si>
+    <t>stripspace</t>
+  </si>
+  <si>
+    <t>{ "add", cmd_add, RUN_SETUP | NEED_WORK_TREE },</t>
+  </si>
+  <si>
+    <t>{ "am", cmd_am, RUN_SETUP | NEED_WORK_TREE },</t>
+  </si>
+  <si>
+    <t>{ "annotate", cmd_annotate, RUN_SETUP | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "apply", cmd_apply, RUN_SETUP_GENTLY },</t>
+  </si>
+  <si>
+    <t>{ "archive", cmd_archive, RUN_SETUP_GENTLY },</t>
+  </si>
+  <si>
+    <t>{ "bisect--helper", cmd_bisect__helper, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "blame", cmd_blame, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "branch", cmd_branch, RUN_SETUP | DELAY_PAGER_CONFIG },</t>
+  </si>
+  <si>
+    <t>{ "bundle", cmd_bundle, RUN_SETUP_GENTLY | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "cat-file", cmd_cat_file, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "check-attr", cmd_check_attr, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "check-ignore", cmd_check_ignore, RUN_SETUP | NEED_WORK_TREE },</t>
+  </si>
+  <si>
+    <t>{ "check-mailmap", cmd_check_mailmap, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "check-ref-format", cmd_check_ref_format, NO_PARSEOPT  },</t>
+  </si>
+  <si>
+    <t>{ "checkout", cmd_checkout, RUN_SETUP | NEED_WORK_TREE },</t>
+  </si>
+  <si>
+    <t>{ "checkout-index", cmd_checkout_index,</t>
+  </si>
+  <si>
+    <t>{ "cherry", cmd_cherry, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "cherry-pick", cmd_cherry_pick, RUN_SETUP | NEED_WORK_TREE },</t>
+  </si>
+  <si>
+    <t>{ "clean", cmd_clean, RUN_SETUP | NEED_WORK_TREE },</t>
+  </si>
+  <si>
+    <t>{ "clone", cmd_clone },</t>
+  </si>
+  <si>
+    <t>{ "column", cmd_column, RUN_SETUP_GENTLY },</t>
+  </si>
+  <si>
+    <t>{ "commit", cmd_commit, RUN_SETUP | NEED_WORK_TREE },</t>
+  </si>
+  <si>
+    <t>{ "commit-graph", cmd_commit_graph, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "commit-tree", cmd_commit_tree, RUN_SETUP | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "config", cmd_config, RUN_SETUP_GENTLY | DELAY_PAGER_CONFIG },</t>
+  </si>
+  <si>
+    <t>{ "count-objects", cmd_count_objects, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "credential", cmd_credential, RUN_SETUP_GENTLY | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "describe", cmd_describe, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "diff", cmd_diff, NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "diff-files", cmd_diff_files, RUN_SETUP | NEED_WORK_TREE | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "diff-index", cmd_diff_index, RUN_SETUP | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "diff-tree", cmd_diff_tree, RUN_SETUP | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "difftool", cmd_difftool, RUN_SETUP_GENTLY },</t>
+  </si>
+  <si>
+    <t>{ "env--helper", cmd_env__helper },</t>
+  </si>
+  <si>
+    <t>{ "fast-export", cmd_fast_export, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "fetch", cmd_fetch, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "fetch-pack", cmd_fetch_pack, RUN_SETUP | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "fmt-merge-msg", cmd_fmt_merge_msg, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "for-each-ref", cmd_for_each_ref, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "format-patch", cmd_format_patch, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "fsck", cmd_fsck, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "fsck-objects", cmd_fsck, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "gc", cmd_gc, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "get-tar-commit-id", cmd_get_tar_commit_id, NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "grep", cmd_grep, RUN_SETUP_GENTLY },</t>
+  </si>
+  <si>
+    <t>{ "hash-object", cmd_hash_object },</t>
+  </si>
+  <si>
+    <t>{ "help", cmd_help },</t>
+  </si>
+  <si>
+    <t>{ "index-pack", cmd_index_pack, RUN_SETUP_GENTLY | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "init", cmd_init_db },</t>
+  </si>
+  <si>
+    <t>{ "init-db", cmd_init_db },</t>
+  </si>
+  <si>
+    <t>{ "interpret-trailers", cmd_interpret_trailers, RUN_SETUP_GENTLY },</t>
+  </si>
+  <si>
+    <t>{ "log", cmd_log, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "ls-files", cmd_ls_files, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "ls-remote", cmd_ls_remote, RUN_SETUP_GENTLY },</t>
+  </si>
+  <si>
+    <t>{ "ls-tree", cmd_ls_tree, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "mailinfo", cmd_mailinfo, RUN_SETUP_GENTLY | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "mailsplit", cmd_mailsplit, NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "merge", cmd_merge, RUN_SETUP | NEED_WORK_TREE },</t>
+  </si>
+  <si>
+    <t>{ "merge-base", cmd_merge_base, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "merge-file", cmd_merge_file, RUN_SETUP_GENTLY },</t>
+  </si>
+  <si>
+    <t>{ "merge-index", cmd_merge_index, RUN_SETUP | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "merge-ours", cmd_merge_ours, RUN_SETUP | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "merge-recursive", cmd_merge_recursive, RUN_SETUP | NEED_WORK_TREE | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "merge-recursive-ours", cmd_merge_recursive, RUN_SETUP | NEED_WORK_TREE | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "merge-recursive-theirs", cmd_merge_recursive, RUN_SETUP | NEED_WORK_TREE | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "merge-subtree", cmd_merge_recursive, RUN_SETUP | NEED_WORK_TREE | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "merge-tree", cmd_merge_tree, RUN_SETUP | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "mktag", cmd_mktag, RUN_SETUP | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "mktree", cmd_mktree, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "multi-pack-index", cmd_multi_pack_index, RUN_SETUP_GENTLY },</t>
+  </si>
+  <si>
+    <t>{ "mv", cmd_mv, RUN_SETUP | NEED_WORK_TREE },</t>
+  </si>
+  <si>
+    <t>{ "name-rev", cmd_name_rev, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "notes", cmd_notes, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "pack-objects", cmd_pack_objects, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "pack-redundant", cmd_pack_redundant, RUN_SETUP | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "pack-refs", cmd_pack_refs, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "patch-id", cmd_patch_id, RUN_SETUP_GENTLY | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "pickaxe", cmd_blame, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "prune", cmd_prune, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "prune-packed", cmd_prune_packed, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "pull", cmd_pull, RUN_SETUP | NEED_WORK_TREE },</t>
+  </si>
+  <si>
+    <t>{ "push", cmd_push, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "range-diff", cmd_range_diff, RUN_SETUP | USE_PAGER },</t>
+  </si>
+  <si>
+    <t>{ "read-tree", cmd_read_tree, RUN_SETUP | SUPPORT_SUPER_PREFIX},</t>
+  </si>
+  <si>
+    <t>{ "rebase", cmd_rebase, RUN_SETUP | NEED_WORK_TREE },</t>
+  </si>
+  <si>
+    <t>{ "rebase--interactive", cmd_rebase__interactive, RUN_SETUP | NEED_WORK_TREE },</t>
+  </si>
+  <si>
+    <t>{ "receive-pack", cmd_receive_pack },</t>
+  </si>
+  <si>
+    <t>{ "reflog", cmd_reflog, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "remote", cmd_remote, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "remote-ext", cmd_remote_ext, NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "remote-fd", cmd_remote_fd, NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "repack", cmd_repack, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "replace", cmd_replace, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "rerere", cmd_rerere, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "reset", cmd_reset, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "restore", cmd_restore, RUN_SETUP | NEED_WORK_TREE },</t>
+  </si>
+  <si>
+    <t>{ "rev-list", cmd_rev_list, RUN_SETUP | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "rev-parse", cmd_rev_parse, NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "revert", cmd_revert, RUN_SETUP | NEED_WORK_TREE },</t>
+  </si>
+  <si>
+    <t>{ "rm", cmd_rm, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "send-pack", cmd_send_pack, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "shortlog", cmd_shortlog, RUN_SETUP_GENTLY | USE_PAGER },</t>
+  </si>
+  <si>
+    <t>{ "show", cmd_show, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "show-branch", cmd_show_branch, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "show-index", cmd_show_index },</t>
+  </si>
+  <si>
+    <t>{ "show-ref", cmd_show_ref, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "sparse-checkout", cmd_sparse_checkout, RUN_SETUP | NEED_WORK_TREE },</t>
+  </si>
+  <si>
+    <t>{ "stage", cmd_add, RUN_SETUP | NEED_WORK_TREE },</t>
+  </si>
+  <si>
+    <t>{ "stash", cmd_stash, RUN_SETUP | NEED_WORK_TREE },</t>
+  </si>
+  <si>
+    <t>{ "status", cmd_status, RUN_SETUP | NEED_WORK_TREE },</t>
+  </si>
+  <si>
+    <t>{ "stripspace", cmd_stripspace },</t>
+  </si>
+  <si>
+    <t>{ "submodule--helper", cmd_submodule__helper, RUN_SETUP | SUPPORT_SUPER_PREFIX | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "switch", cmd_switch, RUN_SETUP | NEED_WORK_TREE },</t>
+  </si>
+  <si>
+    <t>{ "symbolic-ref", cmd_symbolic_ref, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "tag", cmd_tag, RUN_SETUP | DELAY_PAGER_CONFIG },</t>
+  </si>
+  <si>
+    <t>{ "unpack-file", cmd_unpack_file, RUN_SETUP | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "unpack-objects", cmd_unpack_objects, RUN_SETUP | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "update-index", cmd_update_index, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "update-ref", cmd_update_ref, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "update-server-info", cmd_update_server_info, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "upload-archive", cmd_upload_archive, NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "upload-archive--writer", cmd_upload_archive_writer, NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "upload-pack", cmd_upload_pack },</t>
+  </si>
+  <si>
+    <t>{ "var", cmd_var, RUN_SETUP_GENTLY | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "verify-commit", cmd_verify_commit, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "verify-pack", cmd_verify_pack },</t>
+  </si>
+  <si>
+    <t>{ "verify-tag", cmd_verify_tag, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "version", cmd_version },</t>
+  </si>
+  <si>
+    <t>{ "whatchanged", cmd_whatchanged, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>{ "worktree", cmd_worktree, RUN_SETUP | NO_PARSEOPT },</t>
+  </si>
+  <si>
+    <t>{ "write-tree", cmd_write_tree, RUN_SETUP },</t>
+  </si>
+  <si>
+    <t>git.cから取得</t>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>env--helper</t>
+  </si>
+  <si>
+    <t>fsck-objects</t>
+  </si>
+  <si>
+    <t>init-db</t>
+  </si>
+  <si>
+    <t>merge-ours</t>
+  </si>
+  <si>
+    <t>merge-recursive-ours</t>
+  </si>
+  <si>
+    <t>merge-recursive-theirs</t>
+  </si>
+  <si>
+    <t>merge-subtree</t>
+  </si>
+  <si>
+    <t>pickaxe</t>
+  </si>
+  <si>
+    <t>rebase--interactive</t>
+  </si>
+  <si>
+    <t>remote-ext</t>
+  </si>
+  <si>
+    <t>remote-fd</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>submodule--helper</t>
+  </si>
+  <si>
+    <t>upload-archive--writer</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>bisect--helper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>merge-recursive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終的に、とりあえずgit.cとgit公式ヘルプの内容をマージしたものをコマンドの全量とする</t>
+    <rPh sb="0" eb="3">
+      <t>サイシュウテキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ゼンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +2258,14 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -425,10 +2313,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -436,8 +2325,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -774,11 +2666,1499 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD89652-21FC-489D-8478-E86962A59053}">
+  <dimension ref="A1:B163"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <f t="shared" ref="A67:A130" si="1">ROW()-1</f>
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <f t="shared" ref="A131:A163" si="2">ROW()-1</f>
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>675</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B147:B277">
+    <sortCondition ref="B147:B277"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F991321E-3141-4772-A554-0C972C8D4DFC}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="18.75"/>
@@ -793,52 +4173,65 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="1" t="s">
+    <row r="7" spans="1:3">
+      <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
         <v>56</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="10" spans="1:3">
+      <c r="B10" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" location="_git_commands" display="https://git-scm.com/docs/git - _git_commands" xr:uid="{3C5CC135-740E-4C8D-BEA9-C00C89DF1996}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DD6E59-3D21-4A81-A371-7346B3559110}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -854,12 +4247,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197F8012-32C6-483E-BD17-43343EDB49E0}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -932,12 +4325,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FAEB68-9DFF-41E1-8313-D62AF54710FC}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F24"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1470,4 +4863,4162 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D334005E-1C0E-4B60-B953-8979C76E7F08}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:F329"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="40.625" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B67" si="0">IF(RIGHT(A4,3)="[1]",MID(A4,5,LEN(A4)-7),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>add</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>am</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>archive</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>bisect</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>branch</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>bundle</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>checkout</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>cherry-pick</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>citool</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>clean</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>clone</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>commit</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>describe</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>diff</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>fetch</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>format-patch</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>gc</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>grep</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>gui</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>init</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>log</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>merge</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>mv</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>notes</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>pull</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>push</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>range-diff</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>rebase</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>reset</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" ref="B68:B131" si="1">IF(RIGHT(A68,3)="[1]",MID(A68,5,LEN(A68)-7),"")</f>
+        <v>restore</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>revert</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>rm</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>shortlog</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>371</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>show</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>sparse-checkout</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>135</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>stash</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>status</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>submodule</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>switch</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>tag</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>worktree</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>146</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>149</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>config</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>151</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>fast-export</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>152</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>153</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>fast-import</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>154</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>filter-branch</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>156</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>mergetool</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>158</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>159</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="1"/>
+        <v>pack-refs</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="1"/>
+        <v>prune</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>162</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
+        <v>reflog</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>164</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>165</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="1"/>
+        <v>remote</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>166</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>167</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="1"/>
+        <v>repack</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>168</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>169</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="1"/>
+        <v>replace</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>170</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>171</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="B118" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>172</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="1"/>
+        <v>annotate</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>173</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>174</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="1"/>
+        <v>blame</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>175</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>176</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="1"/>
+        <v>bugreport</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>177</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>178</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="1"/>
+        <v>count-objects</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>179</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>180</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="1"/>
+        <v>difftool</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>181</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>182</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="1"/>
+        <v>fsck</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>183</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>184</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="1"/>
+        <v>help</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>185</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" ref="B132:B195" si="2">IF(RIGHT(A132,3)="[1]",MID(A132,5,LEN(A132)-7),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>186</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="2"/>
+        <v>instaweb</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>187</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>188</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="2"/>
+        <v>merge-tree</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>189</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>190</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="2"/>
+        <v>rerere</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>191</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>192</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="2"/>
+        <v>show-branch</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>193</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>194</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="2"/>
+        <v>verify-commit</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>195</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>196</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="2"/>
+        <v>verify-tag</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>197</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>198</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="2"/>
+        <v>eb</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>199</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>200</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="2"/>
+        <v>whatchanged</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>201</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>202</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>203</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="B151" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>204</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="2"/>
+        <v>archimport</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>205</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>206</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="2"/>
+        <v>cvsexportcommit</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>207</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>208</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="2"/>
+        <v>cvsimport</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>209</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>210</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="2"/>
+        <v>cvsserver</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>211</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>212</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="2"/>
+        <v>imap-send</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>213</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>214</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="2"/>
+        <v>p4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>215</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>216</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="2"/>
+        <v>quiltimport</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>217</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>218</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="2"/>
+        <v>request-pull</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>219</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>220</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="2"/>
+        <v>send-email</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>221</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>222</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="2"/>
+        <v>svn</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>223</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>224</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>372</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>373</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>374</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>375</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>376</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>225</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>377</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>226</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>227</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>228</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="B183" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>229</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="2"/>
+        <v>apply</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>231</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="2"/>
+        <v>checkout-index</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>232</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>233</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="2"/>
+        <v>commit-graph</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>234</v>
+      </c>
+      <c r="B189" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>235</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="2"/>
+        <v>commit-tree</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>236</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>237</v>
+      </c>
+      <c r="B192" t="str">
+        <f t="shared" si="2"/>
+        <v>hash-object</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>238</v>
+      </c>
+      <c r="B193" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>239</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" si="2"/>
+        <v>index-pack</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>240</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>241</v>
+      </c>
+      <c r="B196" t="str">
+        <f t="shared" ref="B196:B259" si="3">IF(RIGHT(A196,3)="[1]",MID(A196,5,LEN(A196)-7),"")</f>
+        <v>merge-file</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>242</v>
+      </c>
+      <c r="B197" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>243</v>
+      </c>
+      <c r="B198" t="str">
+        <f t="shared" si="3"/>
+        <v>merge-index</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>244</v>
+      </c>
+      <c r="B199" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>245</v>
+      </c>
+      <c r="B200" t="str">
+        <f t="shared" si="3"/>
+        <v>multi-pack-index</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>246</v>
+      </c>
+      <c r="B201" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>247</v>
+      </c>
+      <c r="B202" t="str">
+        <f t="shared" si="3"/>
+        <v>mktag</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>248</v>
+      </c>
+      <c r="B203" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>249</v>
+      </c>
+      <c r="B204" t="str">
+        <f t="shared" si="3"/>
+        <v>mktree</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>250</v>
+      </c>
+      <c r="B205" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>251</v>
+      </c>
+      <c r="B206" t="str">
+        <f t="shared" si="3"/>
+        <v>pack-objects</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>252</v>
+      </c>
+      <c r="B207" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>253</v>
+      </c>
+      <c r="B208" t="str">
+        <f t="shared" si="3"/>
+        <v>prune-packed</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>254</v>
+      </c>
+      <c r="B209" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>255</v>
+      </c>
+      <c r="B210" t="str">
+        <f t="shared" si="3"/>
+        <v>read-tree</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>256</v>
+      </c>
+      <c r="B211" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>257</v>
+      </c>
+      <c r="B212" t="str">
+        <f t="shared" si="3"/>
+        <v>symbolic-ref</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>258</v>
+      </c>
+      <c r="B213" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>259</v>
+      </c>
+      <c r="B214" t="str">
+        <f t="shared" si="3"/>
+        <v>unpack-objects</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>260</v>
+      </c>
+      <c r="B215" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>261</v>
+      </c>
+      <c r="B216" t="str">
+        <f t="shared" si="3"/>
+        <v>update-index</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>262</v>
+      </c>
+      <c r="B217" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>263</v>
+      </c>
+      <c r="B218" t="str">
+        <f t="shared" si="3"/>
+        <v>update-ref</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>264</v>
+      </c>
+      <c r="B219" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>265</v>
+      </c>
+      <c r="B220" t="str">
+        <f t="shared" si="3"/>
+        <v>write-tree</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>266</v>
+      </c>
+      <c r="B221" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>267</v>
+      </c>
+      <c r="B222" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="B223" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>268</v>
+      </c>
+      <c r="B224" t="str">
+        <f t="shared" si="3"/>
+        <v>cat-file</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>269</v>
+      </c>
+      <c r="B225" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>270</v>
+      </c>
+      <c r="B226" t="str">
+        <f t="shared" si="3"/>
+        <v>cherry</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>271</v>
+      </c>
+      <c r="B227" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>272</v>
+      </c>
+      <c r="B228" t="str">
+        <f t="shared" si="3"/>
+        <v>diff-files</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>273</v>
+      </c>
+      <c r="B229" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>274</v>
+      </c>
+      <c r="B230" t="str">
+        <f t="shared" si="3"/>
+        <v>diff-index</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>275</v>
+      </c>
+      <c r="B231" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>276</v>
+      </c>
+      <c r="B232" t="str">
+        <f t="shared" si="3"/>
+        <v>diff-tree</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>277</v>
+      </c>
+      <c r="B233" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>278</v>
+      </c>
+      <c r="B234" t="str">
+        <f t="shared" si="3"/>
+        <v>for-each-ref</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>279</v>
+      </c>
+      <c r="B235" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>280</v>
+      </c>
+      <c r="B236" t="str">
+        <f t="shared" si="3"/>
+        <v>get-tar-commit-id</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>281</v>
+      </c>
+      <c r="B237" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>282</v>
+      </c>
+      <c r="B238" t="str">
+        <f t="shared" si="3"/>
+        <v>ls-files</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>283</v>
+      </c>
+      <c r="B239" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>284</v>
+      </c>
+      <c r="B240" t="str">
+        <f t="shared" si="3"/>
+        <v>ls-remote</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>285</v>
+      </c>
+      <c r="B241" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>286</v>
+      </c>
+      <c r="B242" t="str">
+        <f t="shared" si="3"/>
+        <v>ls-tree</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>287</v>
+      </c>
+      <c r="B243" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>288</v>
+      </c>
+      <c r="B244" t="str">
+        <f t="shared" si="3"/>
+        <v>merge-base</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>289</v>
+      </c>
+      <c r="B245" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>290</v>
+      </c>
+      <c r="B246" t="str">
+        <f t="shared" si="3"/>
+        <v>name-rev</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>291</v>
+      </c>
+      <c r="B247" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>292</v>
+      </c>
+      <c r="B248" t="str">
+        <f t="shared" si="3"/>
+        <v>pack-redundant</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>293</v>
+      </c>
+      <c r="B249" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>294</v>
+      </c>
+      <c r="B250" t="str">
+        <f t="shared" si="3"/>
+        <v>rev-list</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>295</v>
+      </c>
+      <c r="B251" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>296</v>
+      </c>
+      <c r="B252" t="str">
+        <f t="shared" si="3"/>
+        <v>rev-parse</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>297</v>
+      </c>
+      <c r="B253" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>298</v>
+      </c>
+      <c r="B254" t="str">
+        <f t="shared" si="3"/>
+        <v>show-index</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>299</v>
+      </c>
+      <c r="B255" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>300</v>
+      </c>
+      <c r="B256" t="str">
+        <f t="shared" si="3"/>
+        <v>show-ref</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>301</v>
+      </c>
+      <c r="B257" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>302</v>
+      </c>
+      <c r="B258" t="str">
+        <f t="shared" si="3"/>
+        <v>unpack-file</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>303</v>
+      </c>
+      <c r="B259" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>304</v>
+      </c>
+      <c r="B260" t="str">
+        <f t="shared" ref="B260:B323" si="4">IF(RIGHT(A260,3)="[1]",MID(A260,5,LEN(A260)-7),"")</f>
+        <v>var</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>305</v>
+      </c>
+      <c r="B261" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>306</v>
+      </c>
+      <c r="B262" t="str">
+        <f t="shared" si="4"/>
+        <v>verify-pack</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>307</v>
+      </c>
+      <c r="B263" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>308</v>
+      </c>
+      <c r="B264" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>309</v>
+      </c>
+      <c r="B265" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="B266" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>310</v>
+      </c>
+      <c r="B267" t="str">
+        <f t="shared" si="4"/>
+        <v>daemon</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>311</v>
+      </c>
+      <c r="B268" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>312</v>
+      </c>
+      <c r="B269" t="str">
+        <f t="shared" si="4"/>
+        <v>fetch-pack</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>313</v>
+      </c>
+      <c r="B270" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>314</v>
+      </c>
+      <c r="B271" t="str">
+        <f t="shared" si="4"/>
+        <v>http-backend</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>315</v>
+      </c>
+      <c r="B272" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>316</v>
+      </c>
+      <c r="B273" t="str">
+        <f t="shared" si="4"/>
+        <v>send-pack</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>317</v>
+      </c>
+      <c r="B274" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>318</v>
+      </c>
+      <c r="B275" t="str">
+        <f t="shared" si="4"/>
+        <v>update-server-info</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>319</v>
+      </c>
+      <c r="B276" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>320</v>
+      </c>
+      <c r="B277" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="B278" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>321</v>
+      </c>
+      <c r="B279" t="str">
+        <f t="shared" si="4"/>
+        <v>http-fetch</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>322</v>
+      </c>
+      <c r="B280" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>323</v>
+      </c>
+      <c r="B281" t="str">
+        <f t="shared" si="4"/>
+        <v>http-push</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>324</v>
+      </c>
+      <c r="B282" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>325</v>
+      </c>
+      <c r="B283" t="str">
+        <f t="shared" si="4"/>
+        <v>parse-remote</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>326</v>
+      </c>
+      <c r="B284" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>327</v>
+      </c>
+      <c r="B285" t="str">
+        <f t="shared" si="4"/>
+        <v>receive-pack</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>328</v>
+      </c>
+      <c r="B286" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>329</v>
+      </c>
+      <c r="B287" t="str">
+        <f t="shared" si="4"/>
+        <v>shell</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>330</v>
+      </c>
+      <c r="B288" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>331</v>
+      </c>
+      <c r="B289" t="str">
+        <f t="shared" si="4"/>
+        <v>upload-archive</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>332</v>
+      </c>
+      <c r="B290" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>333</v>
+      </c>
+      <c r="B291" t="str">
+        <f t="shared" si="4"/>
+        <v>upload-pack</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>334</v>
+      </c>
+      <c r="B292" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>335</v>
+      </c>
+      <c r="B293" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>336</v>
+      </c>
+      <c r="B294" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="B295" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>337</v>
+      </c>
+      <c r="B296" t="str">
+        <f t="shared" si="4"/>
+        <v>check-attr</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>338</v>
+      </c>
+      <c r="B297" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>339</v>
+      </c>
+      <c r="B298" t="str">
+        <f t="shared" si="4"/>
+        <v>check-ignore</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>340</v>
+      </c>
+      <c r="B299" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>341</v>
+      </c>
+      <c r="B300" t="str">
+        <f t="shared" si="4"/>
+        <v>check-mailmap</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>342</v>
+      </c>
+      <c r="B301" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>343</v>
+      </c>
+      <c r="B302" t="str">
+        <f t="shared" si="4"/>
+        <v>check-ref-format</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>344</v>
+      </c>
+      <c r="B303" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>345</v>
+      </c>
+      <c r="B304" t="str">
+        <f t="shared" si="4"/>
+        <v>column</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>346</v>
+      </c>
+      <c r="B305" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>347</v>
+      </c>
+      <c r="B306" t="str">
+        <f t="shared" si="4"/>
+        <v>credential</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>348</v>
+      </c>
+      <c r="B307" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>349</v>
+      </c>
+      <c r="B308" t="str">
+        <f t="shared" si="4"/>
+        <v>credential-cache</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>350</v>
+      </c>
+      <c r="B309" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>351</v>
+      </c>
+      <c r="B310" t="str">
+        <f t="shared" si="4"/>
+        <v>credential-store</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>352</v>
+      </c>
+      <c r="B311" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>353</v>
+      </c>
+      <c r="B312" t="str">
+        <f t="shared" si="4"/>
+        <v>fmt-merge-msg</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>354</v>
+      </c>
+      <c r="B313" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>355</v>
+      </c>
+      <c r="B314" t="str">
+        <f t="shared" si="4"/>
+        <v>interpret-trailers</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>356</v>
+      </c>
+      <c r="B315" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>357</v>
+      </c>
+      <c r="B316" t="str">
+        <f t="shared" si="4"/>
+        <v>mailinfo</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>358</v>
+      </c>
+      <c r="B317" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>359</v>
+      </c>
+      <c r="B318" t="str">
+        <f t="shared" si="4"/>
+        <v>mailsplit</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>360</v>
+      </c>
+      <c r="B319" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>361</v>
+      </c>
+      <c r="B320" t="str">
+        <f t="shared" si="4"/>
+        <v>merge-one-file</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>362</v>
+      </c>
+      <c r="B321" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>363</v>
+      </c>
+      <c r="B322" t="str">
+        <f t="shared" si="4"/>
+        <v>patch-id</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>364</v>
+      </c>
+      <c r="B323" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>365</v>
+      </c>
+      <c r="B324" t="str">
+        <f t="shared" ref="B324:B329" si="5">IF(RIGHT(A324,3)="[1]",MID(A324,5,LEN(A324)-7),"")</f>
+        <v>sh-i18n</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>366</v>
+      </c>
+      <c r="B325" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>367</v>
+      </c>
+      <c r="B326" t="str">
+        <f t="shared" si="5"/>
+        <v>sh-setup</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>368</v>
+      </c>
+      <c r="B327" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>369</v>
+      </c>
+      <c r="B328" t="str">
+        <f t="shared" si="5"/>
+        <v>stripspace</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>370</v>
+      </c>
+      <c r="B329" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="_git_commands" display="https://git-scm.com/docs/git - _git_commands" xr:uid="{1D5F4699-66E8-4472-8FEA-25B24F5F2001}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E60925-35F2-48A8-9763-020A7BF43080}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:B132"/>
+  <sheetViews>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="60.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B2" t="str">
+        <f>MID(A2,4,FIND(",",A2)-5)</f>
+        <v>add</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" si="0">MID(A3,4,FIND(",",A3)-5)</f>
+        <v>am</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>annotate</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>apply</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>archive</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>bisect--helper</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>535</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>blame</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>branch</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>bundle</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>538</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>cat-file</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>539</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>check-attr</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>540</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>check-ignore</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>check-mailmap</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>542</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>check-ref-format</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>543</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>checkout</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>544</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>checkout-index</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>545</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>cherry</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>546</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>cherry-pick</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>547</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>clean</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>548</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>clone</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>549</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>column</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>550</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>commit</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>551</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>commit-graph</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>552</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>commit-tree</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>553</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>config</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>554</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>count-objects</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>555</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>credential</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>556</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>describe</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>557</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>diff</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>558</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>diff-files</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>559</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>diff-index</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>560</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>diff-tree</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>561</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>difftool</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>562</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>env--helper</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>563</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>fast-export</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>564</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>fetch</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>565</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>fetch-pack</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>566</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>fmt-merge-msg</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>567</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>for-each-ref</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>568</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>format-patch</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>569</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>fsck</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>570</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>fsck-objects</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>571</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>gc</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>572</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>get-tar-commit-id</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>573</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>grep</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>574</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>hash-object</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>575</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>help</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>576</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>index-pack</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>577</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>init</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>578</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>init-db</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>579</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>interpret-trailers</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>580</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>log</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>581</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>ls-files</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>582</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>ls-remote</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>583</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>ls-tree</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>584</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>mailinfo</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>585</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>mailsplit</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>586</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>merge</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>587</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>merge-base</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>588</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>merge-file</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>589</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>merge-index</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>590</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>merge-ours</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>591</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>merge-recursive</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>592</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>merge-recursive-ours</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>593</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>merge-recursive-theirs</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>594</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B130" si="1">MID(A67,4,FIND(",",A67)-5)</f>
+        <v>merge-subtree</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>595</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>merge-tree</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>596</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>mktag</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>597</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>mktree</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>598</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>multi-pack-index</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>599</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>mv</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>600</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>name-rev</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>601</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>notes</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>602</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>pack-objects</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>603</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>pack-redundant</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>604</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>pack-refs</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>605</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>patch-id</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>606</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>pickaxe</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>607</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>prune</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>608</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>prune-packed</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>609</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>pull</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>610</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>push</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>611</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>range-diff</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>612</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>read-tree</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>613</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>rebase</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>614</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>rebase--interactive</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>615</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>receive-pack</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>616</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>reflog</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>617</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>remote</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>618</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>remote-ext</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>619</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>remote-fd</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>620</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>repack</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>621</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>replace</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>622</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>rerere</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>623</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>reset</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>624</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>restore</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>625</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>rev-list</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>626</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>rev-parse</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>627</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>revert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>628</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>rm</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>629</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>send-pack</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>630</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>shortlog</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>631</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
+        <v>show</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>632</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="1"/>
+        <v>show-branch</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>633</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
+        <v>show-index</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>634</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="1"/>
+        <v>show-ref</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>635</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="1"/>
+        <v>sparse-checkout</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>636</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
+        <v>stage</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>637</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="1"/>
+        <v>stash</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>638</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="1"/>
+        <v>status</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>639</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="1"/>
+        <v>stripspace</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>640</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="1"/>
+        <v>submodule--helper</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>641</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="1"/>
+        <v>switch</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>642</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="1"/>
+        <v>symbolic-ref</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>643</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="1"/>
+        <v>tag</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>644</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="1"/>
+        <v>unpack-file</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>645</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="1"/>
+        <v>unpack-objects</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>646</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="1"/>
+        <v>update-index</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>647</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="1"/>
+        <v>update-ref</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>648</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="1"/>
+        <v>update-server-info</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>649</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="1"/>
+        <v>upload-archive</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>650</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="1"/>
+        <v>upload-archive--writer</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>651</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="1"/>
+        <v>upload-pack</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>652</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="1"/>
+        <v>var</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>653</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="1"/>
+        <v>verify-commit</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>654</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="1"/>
+        <v>verify-pack</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>655</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="1"/>
+        <v>verify-tag</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>656</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="1"/>
+        <v>version</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>657</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="1"/>
+        <v>whatchanged</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>658</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" ref="B131:B132" si="2">MID(A131,4,FIND(",",A131)-5)</f>
+        <v>worktree</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>659</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="2"/>
+        <v>write-tree</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Git-Complete/検証.xlsx
+++ b/Git-Complete/検証.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\Git-Complete\Git-Complete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BA250D-FC60-48DA-A58E-85955D852ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EE617C-7FF4-433B-AAF2-CCCF2DD05CC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="command-list.txt" sheetId="15" r:id="rId1"/>
@@ -1398,8 +1398,8 @@
   <dimension ref="A1:G166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32" defaultRowHeight="18.75"/>

--- a/Git-Complete/検証.xlsx
+++ b/Git-Complete/検証.xlsx
@@ -1,24 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\Git-Complete\Git-Complete\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E8A183-88AA-49FC-8560-E354A5A29F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-23955" yWindow="990" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="command-list.txt" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="memo" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="パターン検討" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="sample_git-status" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="こんな感じで結果を引数で取れるね" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="command-list.txt" sheetId="1" r:id="rId1"/>
+    <sheet name="memo" sheetId="2" r:id="rId2"/>
+    <sheet name="パターン検討" sheetId="3" r:id="rId3"/>
+    <sheet name="sample_git-status" sheetId="4" r:id="rId4"/>
+    <sheet name="こんな感じで結果を引数で取れるね" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'command-list.txt'!$A$1:$F$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'command-list.txt'!$A$1:$F$166</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -37,7 +50,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">command-name(git/command-list.txt</t>
+      <t>command-name(git/command-list.txt</t>
     </r>
     <r>
       <rPr>
@@ -47,7 +60,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">から取得</t>
+      <t>から取得</t>
     </r>
     <r>
       <rPr>
@@ -57,17 +70,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">category[category]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worktree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">web site</t>
+    <t>category[category]</t>
+  </si>
+  <si>
+    <t>worktree</t>
+  </si>
+  <si>
+    <t>web site</t>
   </si>
   <si>
     <r>
@@ -78,7 +91,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">git</t>
+      <t>git</t>
     </r>
     <r>
       <rPr>
@@ -88,560 +101,560 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">のコマンドか？</t>
+      <t>のコマンドか？</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">synopsis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varsion 2.27.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">annotate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancillaryinterrogators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">〇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gitweb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">×</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rerere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bugreport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count-objects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">difftool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fsck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">help</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instaweb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge-tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show-branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify-commit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify-tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whatchanged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reflog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancillarymanipulators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">replace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fast-import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">△</t>
-  </si>
-  <si>
-    <t xml:space="preserve">config</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fast-export</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filter-branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mergetool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pack-refs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foreignscminterface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archimport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cvsexportcommit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cvsimport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cvsserver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imap-send</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quiltimport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">request-pull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">send-email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gitattributes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gitcli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gitcore-tutorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gitcvs-migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gitdiffcore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giteveryday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gitfaq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gitglossary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">githooks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gitignore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gitmodules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gitnamespaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gitrepository-layout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gitrevisions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gitsubmodules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gittutorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gittutorial-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gitworkflows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bisect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mainporcelain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">format-patch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">init</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">describe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gitk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shortlog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">am</t>
-  </si>
-  <si>
-    <t xml:space="preserve">branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bundle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checkout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherry-pick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fetch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">push</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range-diff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rebase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">restore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sparse-checkout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">switch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diff-tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plumbinginterrogators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get-tar-commit-id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rev-parse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cat-file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diff-files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diff-index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for-each-ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ls-files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ls-remote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ls-tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge-base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name-rev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pack-redundant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rev-list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show-index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show-ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unpack-file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify-pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commit-tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plumbingmanipulators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hash-object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read-tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">symbolic-ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index-pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prune-packed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mktree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checkout-index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commit-graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge-file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge-index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mktag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multi-pack-index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pack-objects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unpack-objects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">update-index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">update-ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write-tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check-ref-format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purehelpers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge-one-file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch-id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mailsplit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh-setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check-attr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check-ignore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check-mailmap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">credential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">credential-cache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">credential-store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fmt-merge-msg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interpret-trailers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mailinfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh-i18n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stripspace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">receive-pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synchelpers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http-fetch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http-push</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parse-remote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upload-archive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upload-pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daemon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synchingrepositories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fetch-pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http-backend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">send-pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">update-server-info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[parameter(Mandatory, HelpMessage = "test")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">必須の奴には↑つける</t>
+    <t>synopsis</t>
+  </si>
+  <si>
+    <t>varsion 2.27.0</t>
+  </si>
+  <si>
+    <t>annotate</t>
+  </si>
+  <si>
+    <t>ancillaryinterrogators</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>gitweb</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>rerere</t>
+  </si>
+  <si>
+    <t>bugreport</t>
+  </si>
+  <si>
+    <t>count-objects</t>
+  </si>
+  <si>
+    <t>difftool</t>
+  </si>
+  <si>
+    <t>fsck</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>instaweb</t>
+  </si>
+  <si>
+    <t>merge-tree</t>
+  </si>
+  <si>
+    <t>show-branch</t>
+  </si>
+  <si>
+    <t>verify-commit</t>
+  </si>
+  <si>
+    <t>verify-tag</t>
+  </si>
+  <si>
+    <t>whatchanged</t>
+  </si>
+  <si>
+    <t>reflog</t>
+  </si>
+  <si>
+    <t>ancillarymanipulators</t>
+  </si>
+  <si>
+    <t>remote</t>
+  </si>
+  <si>
+    <t>repack</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>fast-import</t>
+  </si>
+  <si>
+    <t>△</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>fast-export</t>
+  </si>
+  <si>
+    <t>filter-branch</t>
+  </si>
+  <si>
+    <t>mergetool</t>
+  </si>
+  <si>
+    <t>pack-refs</t>
+  </si>
+  <si>
+    <t>prune</t>
+  </si>
+  <si>
+    <t>svn</t>
+  </si>
+  <si>
+    <t>foreignscminterface</t>
+  </si>
+  <si>
+    <t>archimport</t>
+  </si>
+  <si>
+    <t>cvsexportcommit</t>
+  </si>
+  <si>
+    <t>cvsimport</t>
+  </si>
+  <si>
+    <t>cvsserver</t>
+  </si>
+  <si>
+    <t>imap-send</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>quiltimport</t>
+  </si>
+  <si>
+    <t>request-pull</t>
+  </si>
+  <si>
+    <t>send-email</t>
+  </si>
+  <si>
+    <t>gitattributes</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>gitcli</t>
+  </si>
+  <si>
+    <t>gitcore-tutorial</t>
+  </si>
+  <si>
+    <t>gitcvs-migration</t>
+  </si>
+  <si>
+    <t>gitdiffcore</t>
+  </si>
+  <si>
+    <t>giteveryday</t>
+  </si>
+  <si>
+    <t>gitfaq</t>
+  </si>
+  <si>
+    <t>gitglossary</t>
+  </si>
+  <si>
+    <t>githooks</t>
+  </si>
+  <si>
+    <t>gitignore</t>
+  </si>
+  <si>
+    <t>gitmodules</t>
+  </si>
+  <si>
+    <t>gitnamespaces</t>
+  </si>
+  <si>
+    <t>gitrepository-layout</t>
+  </si>
+  <si>
+    <t>gitrevisions</t>
+  </si>
+  <si>
+    <t>gitsubmodules</t>
+  </si>
+  <si>
+    <t>gittutorial</t>
+  </si>
+  <si>
+    <t>gittutorial-2</t>
+  </si>
+  <si>
+    <t>gitworkflows</t>
+  </si>
+  <si>
+    <t>bisect</t>
+  </si>
+  <si>
+    <t>mainporcelain</t>
+  </si>
+  <si>
+    <t>format-patch</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>rm</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>stash</t>
+  </si>
+  <si>
+    <t>archive</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <t>gitk</t>
+  </si>
+  <si>
+    <t>shortlog</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>bundle</t>
+  </si>
+  <si>
+    <t>checkout</t>
+  </si>
+  <si>
+    <t>cherry-pick</t>
+  </si>
+  <si>
+    <t>citool</t>
+  </si>
+  <si>
+    <t>clone</t>
+  </si>
+  <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>fetch</t>
+  </si>
+  <si>
+    <t>gc</t>
+  </si>
+  <si>
+    <t>grep</t>
+  </si>
+  <si>
+    <t>gui</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>merge</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>range-diff</t>
+  </si>
+  <si>
+    <t>rebase</t>
+  </si>
+  <si>
+    <t>restore</t>
+  </si>
+  <si>
+    <t>revert</t>
+  </si>
+  <si>
+    <t>sparse-checkout</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>submodule</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>diff-tree</t>
+  </si>
+  <si>
+    <t>plumbinginterrogators</t>
+  </si>
+  <si>
+    <t>get-tar-commit-id</t>
+  </si>
+  <si>
+    <t>rev-parse</t>
+  </si>
+  <si>
+    <t>cat-file</t>
+  </si>
+  <si>
+    <t>cherry</t>
+  </si>
+  <si>
+    <t>diff-files</t>
+  </si>
+  <si>
+    <t>diff-index</t>
+  </si>
+  <si>
+    <t>for-each-ref</t>
+  </si>
+  <si>
+    <t>ls-files</t>
+  </si>
+  <si>
+    <t>ls-remote</t>
+  </si>
+  <si>
+    <t>ls-tree</t>
+  </si>
+  <si>
+    <t>merge-base</t>
+  </si>
+  <si>
+    <t>name-rev</t>
+  </si>
+  <si>
+    <t>pack-redundant</t>
+  </si>
+  <si>
+    <t>rev-list</t>
+  </si>
+  <si>
+    <t>show-index</t>
+  </si>
+  <si>
+    <t>show-ref</t>
+  </si>
+  <si>
+    <t>unpack-file</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>verify-pack</t>
+  </si>
+  <si>
+    <t>commit-tree</t>
+  </si>
+  <si>
+    <t>plumbingmanipulators</t>
+  </si>
+  <si>
+    <t>hash-object</t>
+  </si>
+  <si>
+    <t>read-tree</t>
+  </si>
+  <si>
+    <t>symbolic-ref</t>
+  </si>
+  <si>
+    <t>index-pack</t>
+  </si>
+  <si>
+    <t>prune-packed</t>
+  </si>
+  <si>
+    <t>mktree</t>
+  </si>
+  <si>
+    <t>apply</t>
+  </si>
+  <si>
+    <t>checkout-index</t>
+  </si>
+  <si>
+    <t>commit-graph</t>
+  </si>
+  <si>
+    <t>merge-file</t>
+  </si>
+  <si>
+    <t>merge-index</t>
+  </si>
+  <si>
+    <t>mktag</t>
+  </si>
+  <si>
+    <t>multi-pack-index</t>
+  </si>
+  <si>
+    <t>pack-objects</t>
+  </si>
+  <si>
+    <t>unpack-objects</t>
+  </si>
+  <si>
+    <t>update-index</t>
+  </si>
+  <si>
+    <t>update-ref</t>
+  </si>
+  <si>
+    <t>write-tree</t>
+  </si>
+  <si>
+    <t>check-ref-format</t>
+  </si>
+  <si>
+    <t>purehelpers</t>
+  </si>
+  <si>
+    <t>merge-one-file</t>
+  </si>
+  <si>
+    <t>patch-id</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>mailsplit</t>
+  </si>
+  <si>
+    <t>sh-setup</t>
+  </si>
+  <si>
+    <t>check-attr</t>
+  </si>
+  <si>
+    <t>check-ignore</t>
+  </si>
+  <si>
+    <t>check-mailmap</t>
+  </si>
+  <si>
+    <t>credential</t>
+  </si>
+  <si>
+    <t>credential-cache</t>
+  </si>
+  <si>
+    <t>credential-store</t>
+  </si>
+  <si>
+    <t>fmt-merge-msg</t>
+  </si>
+  <si>
+    <t>interpret-trailers</t>
+  </si>
+  <si>
+    <t>mailinfo</t>
+  </si>
+  <si>
+    <t>sh-i18n</t>
+  </si>
+  <si>
+    <t>stripspace</t>
+  </si>
+  <si>
+    <t>receive-pack</t>
+  </si>
+  <si>
+    <t>synchelpers</t>
+  </si>
+  <si>
+    <t>http-fetch</t>
+  </si>
+  <si>
+    <t>http-push</t>
+  </si>
+  <si>
+    <t>parse-remote</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>upload-archive</t>
+  </si>
+  <si>
+    <t>upload-pack</t>
+  </si>
+  <si>
+    <t>daemon</t>
+  </si>
+  <si>
+    <t>synchingrepositories</t>
+  </si>
+  <si>
+    <t>fetch-pack</t>
+  </si>
+  <si>
+    <t>http-backend</t>
+  </si>
+  <si>
+    <t>send-pack</t>
+  </si>
+  <si>
+    <t>update-server-info</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>[parameter(Mandatory, HelpMessage = "test")]</t>
+  </si>
+  <si>
+    <t>必須の奴には↑つける</t>
   </si>
   <si>
     <r>
@@ -652,7 +665,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">-help</t>
+      <t>-help</t>
     </r>
     <r>
       <rPr>
@@ -662,7 +675,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">は共通的に持ってるから全コマンドで補完できる、またはなんか考える</t>
+      <t>は共通的に持ってるから全コマンドで補完できる、またはなんか考える</t>
     </r>
   </si>
   <si>
@@ -674,7 +687,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">git</t>
+      <t>git</t>
     </r>
     <r>
       <rPr>
@@ -684,41 +697,35 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">公式から取得するためのメモ</t>
+      <t>公式から取得するためのメモ</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">command list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git/command-list.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synposis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">var test = document.querySelector('#_synopsis')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test.parentElement.querySelector('.content').innerText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コマンド一覧シートに一応公式に書いてあったコマンドの一覧は書いた</t>
-  </si>
-  <si>
-    <t xml:space="preserve">options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">var optsions = document.querySelector('#_options').parentElement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">var ary = Array.from(optsions.querySelectorAll('.hdlist1'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ary.forEach(x =&gt; console.log(x.innerText))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パターン</t>
+    <t>command list</t>
+  </si>
+  <si>
+    <t>git/command-list.txt</t>
+  </si>
+  <si>
+    <t>synposis</t>
+  </si>
+  <si>
+    <t>var test = document.querySelector('#_synopsis')</t>
+  </si>
+  <si>
+    <t>test.parentElement.querySelector('.content').innerText</t>
+  </si>
+  <si>
+    <t>コマンド一覧シートに一応公式に書いてあったコマンドの一覧は書いた</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>ary.forEach(x =&gt; console.log(x.innerText))</t>
+  </si>
+  <si>
+    <t>パターン</t>
   </si>
   <si>
     <r>
@@ -729,7 +736,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">git-complete</t>
+      <t>git-complete</t>
     </r>
     <r>
       <rPr>
@@ -739,80 +746,80 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ではこうする</t>
+      <t>ではこうする</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">備考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git commad -option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git-Commad -_-option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git commad --option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git-Commad -_--option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git commad --option [aaa]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git-Commad -_--option  or  git-Commad -_--option aaa -_--option_val aaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">値指定が必要不要のパターン。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git commad --option[=aaa]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git stash list -option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git-Stash-List -_-option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アノテーション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">引数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">値</t>
-  </si>
-  <si>
-    <t xml:space="preserve">script_param</t>
-  </si>
-  <si>
-    <t xml:space="preserve">script_make_expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[switch]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--short</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--show-stash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ValidateSet("version", "dummy", "dummy2")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--porcelain</t>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>git commad -option</t>
+  </si>
+  <si>
+    <t>git-Commad -_-option</t>
+  </si>
+  <si>
+    <t>git commad --option</t>
+  </si>
+  <si>
+    <t>git-Commad -_--option</t>
+  </si>
+  <si>
+    <t>git commad --option [aaa]</t>
+  </si>
+  <si>
+    <t>git-Commad -_--option  or  git-Commad -_--option aaa -_--option_val aaa</t>
+  </si>
+  <si>
+    <t>値指定が必要不要のパターン。</t>
+  </si>
+  <si>
+    <t>git commad --option[=aaa]</t>
+  </si>
+  <si>
+    <t>git stash list -option</t>
+  </si>
+  <si>
+    <t>git-Stash-List -_-option</t>
+  </si>
+  <si>
+    <t>アノテーション</t>
+  </si>
+  <si>
+    <t>引数</t>
+  </si>
+  <si>
+    <t>値</t>
+  </si>
+  <si>
+    <t>script_param</t>
+  </si>
+  <si>
+    <t>script_make_expression</t>
+  </si>
+  <si>
+    <t>[switch]</t>
+  </si>
+  <si>
+    <t>-s</t>
+  </si>
+  <si>
+    <t>--short</t>
+  </si>
+  <si>
+    <t>-b</t>
+  </si>
+  <si>
+    <t>--branch</t>
+  </si>
+  <si>
+    <t>--show-stash</t>
+  </si>
+  <si>
+    <t>[ValidateSet("version", "dummy", "dummy2")]</t>
+  </si>
+  <si>
+    <t>--porcelain</t>
   </si>
   <si>
     <r>
@@ -823,7 +830,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">イコールの後に</t>
+      <t>イコールの後に</t>
     </r>
     <r>
       <rPr>
@@ -833,7 +840,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">version</t>
+      <t>version</t>
     </r>
     <r>
       <rPr>
@@ -843,23 +850,23 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">を指定する</t>
+      <t>を指定する</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">--long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--verbose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ValidateSet("mode", "dummy", "dummy2")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-u</t>
+    <t>--long</t>
+  </si>
+  <si>
+    <t>-v</t>
+  </si>
+  <si>
+    <t>--verbose</t>
+  </si>
+  <si>
+    <t>[ValidateSet("mode", "dummy", "dummy2")]</t>
+  </si>
+  <si>
+    <t>-u</t>
   </si>
   <si>
     <r>
@@ -870,7 +877,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">スペースで</t>
+      <t>スペースで</t>
     </r>
     <r>
       <rPr>
@@ -880,7 +887,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">mode</t>
+      <t>mode</t>
     </r>
     <r>
       <rPr>
@@ -890,11 +897,11 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">を指定する</t>
+      <t>を指定する</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">--untracked-files</t>
+    <t>--untracked-files</t>
   </si>
   <si>
     <r>
@@ -905,7 +912,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">イコールの後に</t>
+      <t>イコールの後に</t>
     </r>
     <r>
       <rPr>
@@ -915,7 +922,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">mode</t>
+      <t>mode</t>
     </r>
     <r>
       <rPr>
@@ -925,23 +932,23 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">を指定する</t>
+      <t>を指定する</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">--ignore-submodules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--ignored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ValidateSet("column", "dummy", "dummy2")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--column</t>
+    <t>--ignore-submodules</t>
+  </si>
+  <si>
+    <t>--ignored</t>
+  </si>
+  <si>
+    <t>-z</t>
+  </si>
+  <si>
+    <t>[ValidateSet("column", "dummy", "dummy2")]</t>
+  </si>
+  <si>
+    <t>--column</t>
   </si>
   <si>
     <r>
@@ -952,7 +959,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">イコールの後に</t>
+      <t>イコールの後に</t>
     </r>
     <r>
       <rPr>
@@ -962,7 +969,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">column</t>
+      <t>column</t>
     </r>
     <r>
       <rPr>
@@ -972,29 +979,29 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">を指定する</t>
+      <t>を指定する</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">--no-column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--ahead-behind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--no-ahead-behind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--renames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--no-renames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ValidateSet("n", "dummy", "dummy2", "dummy2")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--find-renames</t>
+    <t>--no-column</t>
+  </si>
+  <si>
+    <t>--ahead-behind</t>
+  </si>
+  <si>
+    <t>--no-ahead-behind</t>
+  </si>
+  <si>
+    <t>--renames</t>
+  </si>
+  <si>
+    <t>--no-renames</t>
+  </si>
+  <si>
+    <t>[ValidateSet("n", "dummy", "dummy2", "dummy2")]</t>
+  </si>
+  <si>
+    <t>--find-renames</t>
   </si>
   <si>
     <r>
@@ -1005,7 +1012,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">イコールの後に</t>
+      <t>イコールの後に</t>
     </r>
     <r>
       <rPr>
@@ -1015,7 +1022,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">n</t>
+      <t>n</t>
     </r>
     <r>
       <rPr>
@@ -1025,65 +1032,52 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">を指定する</t>
+      <t>を指定する</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">--no-lock-index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--lock-index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function test{param( $a ) Write-Host $a}</t>
+    <t>--no-lock-index</t>
+  </si>
+  <si>
+    <t>--lock-index</t>
+  </si>
+  <si>
+    <t>function test{param( $a ) Write-Host $a}</t>
   </si>
   <si>
     <t xml:space="preserve"> test -a $(git branch )  </t>
   </si>
   <si>
-    <t xml:space="preserve">PS C:\develop\Git-Complete&gt; function test{param( $a ) Write-Host $a}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;&gt;  test -a $(git branch )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;&gt;                                                                                                                      * develop   master</t>
+    <t>PS C:\develop\Git-Complete&gt; function test{param( $a ) Write-Host $a}</t>
+  </si>
+  <si>
+    <t>&gt;&gt;  test -a $(git branch )</t>
+  </si>
+  <si>
+    <t>&gt;&gt;                                                                                                                      * develop   master</t>
   </si>
   <si>
     <t xml:space="preserve">PS C:\develop\Git-Complete&gt;                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                    </t>
+  </si>
+  <si>
+    <t>var optsions = document.querySelector('#_options').parentElement</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>var ary = Array.from(optsions.querySelectorAll('.hdlist1'))</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1094,7 +1088,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Yu Gothic"/>
@@ -1102,7 +1096,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1110,11 +1104,17 @@
       <charset val="128"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1151,123 +1151,94 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{647DAD52-94CE-4EF7-9F62-F1FD04E54560}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1326,38 +1297,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G166"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="56.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="1" width="35.46"/>
+    <col min="1" max="1" width="24.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.875" style="1" customWidth="1"/>
+    <col min="5" max="1025" width="35.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1380,7 +1654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18.75">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1391,7 +1665,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A2</f>
+        <f t="shared" ref="D2:D33" si="0">"chrome https://git-scm.com/docs/git-"&amp;A2</f>
         <v>chrome https://git-scm.com/docs/git-annotate</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -1399,7 +1673,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="18.75">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1410,7 +1684,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A3</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-gitweb</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -1418,7 +1692,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1429,7 +1703,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A4</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-blame</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1437,7 +1711,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="18.75">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -1448,7 +1722,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A5</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-rerere</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -1456,7 +1730,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" ht="18.75">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1465,7 +1739,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A6</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-bugreport</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1473,7 +1747,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" ht="18.75">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -1482,7 +1756,7 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A7</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-count-objects</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1490,7 +1764,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" ht="18.75">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1499,7 +1773,7 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A8</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-difftool</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1507,7 +1781,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" ht="18.75">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1516,7 +1790,7 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A9</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-fsck</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1524,7 +1798,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" ht="18.75">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1533,7 +1807,7 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A10</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-help</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -1541,7 +1815,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" ht="18.75">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1550,7 +1824,7 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A11</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-instaweb</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1558,7 +1832,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" ht="18.75">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1567,7 +1841,7 @@
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A12</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-merge-tree</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -1575,7 +1849,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" ht="18.75">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -1584,7 +1858,7 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A13</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-show-branch</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -1592,7 +1866,7 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" ht="18.75">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -1601,7 +1875,7 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A14</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-verify-commit</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -1609,7 +1883,7 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" ht="18.75">
       <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
@@ -1618,7 +1892,7 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A15</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-verify-tag</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -1626,7 +1900,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" ht="18.75">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
@@ -1635,7 +1909,7 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A16</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-whatchanged</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -1643,7 +1917,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="18.75">
       <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
@@ -1654,7 +1928,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A17</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-reflog</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -1662,7 +1936,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="18.75">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1673,7 +1947,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A18</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-remote</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -1681,7 +1955,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="18.75">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -1692,7 +1966,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A19</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-repack</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -1700,7 +1974,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="18.75">
       <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
@@ -1711,7 +1985,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A20</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-replace</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -1719,7 +1993,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="18.75">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -1730,7 +2004,7 @@
         <v>29</v>
       </c>
       <c r="D21" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A21</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-fast-import</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -1738,7 +2012,7 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="18.75">
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
@@ -1747,7 +2021,7 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A22</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-config</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -1755,7 +2029,7 @@
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="18.75">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -1764,7 +2038,7 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A23</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-fast-export</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -1772,7 +2046,7 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="18.75">
       <c r="A24" s="5" t="s">
         <v>36</v>
       </c>
@@ -1781,7 +2055,7 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A24</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-filter-branch</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -1789,7 +2063,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="18.75">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -1798,7 +2072,7 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A25</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-mergetool</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -1806,7 +2080,7 @@
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="18.75">
       <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
@@ -1815,7 +2089,7 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A26</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-pack-refs</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -1823,7 +2097,7 @@
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="18.75">
       <c r="A27" s="5" t="s">
         <v>39</v>
       </c>
@@ -1832,7 +2106,7 @@
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A27</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-prune</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -1840,7 +2114,7 @@
       </c>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="18.75">
       <c r="A28" s="5" t="s">
         <v>40</v>
       </c>
@@ -1851,7 +2125,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A28</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-svn</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -1859,7 +2133,7 @@
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="18.75">
       <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
@@ -1868,7 +2142,7 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A29</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-archimport</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -1876,7 +2150,7 @@
       </c>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="18.75">
       <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
@@ -1885,7 +2159,7 @@
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A30</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-cvsexportcommit</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -1893,7 +2167,7 @@
       </c>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="18.75">
       <c r="A31" s="5" t="s">
         <v>44</v>
       </c>
@@ -1902,7 +2176,7 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A31</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-cvsimport</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -1910,7 +2184,7 @@
       </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="18.75">
       <c r="A32" s="5" t="s">
         <v>45</v>
       </c>
@@ -1919,7 +2193,7 @@
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A32</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-cvsserver</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -1929,7 +2203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="18.75">
       <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
@@ -1938,7 +2212,7 @@
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A33</f>
+        <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-imap-send</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -1946,7 +2220,7 @@
       </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="18.75">
       <c r="A34" s="5" t="s">
         <v>47</v>
       </c>
@@ -1955,7 +2229,7 @@
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A34</f>
+        <f t="shared" ref="D34:D65" si="1">"chrome https://git-scm.com/docs/git-"&amp;A34</f>
         <v>chrome https://git-scm.com/docs/git-p4</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -1963,7 +2237,7 @@
       </c>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="18.75">
       <c r="A35" s="5" t="s">
         <v>48</v>
       </c>
@@ -1972,7 +2246,7 @@
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A35</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-quiltimport</v>
       </c>
       <c r="E35" s="7" t="s">
@@ -1980,7 +2254,7 @@
       </c>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="18.75">
       <c r="A36" s="5" t="s">
         <v>49</v>
       </c>
@@ -1989,7 +2263,7 @@
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A36</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-request-pull</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -1997,7 +2271,7 @@
       </c>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="18.75">
       <c r="A37" s="5" t="s">
         <v>50</v>
       </c>
@@ -2006,7 +2280,7 @@
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A37</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-send-email</v>
       </c>
       <c r="E37" s="7" t="s">
@@ -2014,7 +2288,7 @@
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="18.75">
       <c r="A38" s="5" t="s">
         <v>51</v>
       </c>
@@ -2023,7 +2297,7 @@
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A38</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-gitattributes</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -2031,7 +2305,7 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="18.75">
       <c r="A39" s="5" t="s">
         <v>53</v>
       </c>
@@ -2040,7 +2314,7 @@
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A39</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-gitcli</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -2048,7 +2322,7 @@
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="18.75">
       <c r="A40" s="5" t="s">
         <v>54</v>
       </c>
@@ -2057,7 +2331,7 @@
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A40</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-gitcore-tutorial</v>
       </c>
       <c r="E40" s="5" t="s">
@@ -2065,7 +2339,7 @@
       </c>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="18.75">
       <c r="A41" s="5" t="s">
         <v>55</v>
       </c>
@@ -2074,7 +2348,7 @@
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A41</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-gitcvs-migration</v>
       </c>
       <c r="E41" s="5" t="s">
@@ -2082,7 +2356,7 @@
       </c>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="18.75">
       <c r="A42" s="5" t="s">
         <v>56</v>
       </c>
@@ -2091,7 +2365,7 @@
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A42</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-gitdiffcore</v>
       </c>
       <c r="E42" s="5" t="s">
@@ -2099,7 +2373,7 @@
       </c>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="18.75">
       <c r="A43" s="5" t="s">
         <v>57</v>
       </c>
@@ -2108,7 +2382,7 @@
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A43</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-giteveryday</v>
       </c>
       <c r="E43" s="5" t="s">
@@ -2116,7 +2390,7 @@
       </c>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="18.75">
       <c r="A44" s="5" t="s">
         <v>58</v>
       </c>
@@ -2125,7 +2399,7 @@
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A44</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-gitfaq</v>
       </c>
       <c r="E44" s="5" t="s">
@@ -2133,7 +2407,7 @@
       </c>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="18.75">
       <c r="A45" s="5" t="s">
         <v>59</v>
       </c>
@@ -2142,7 +2416,7 @@
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A45</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-gitglossary</v>
       </c>
       <c r="E45" s="5" t="s">
@@ -2150,7 +2424,7 @@
       </c>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="18.75">
       <c r="A46" s="5" t="s">
         <v>60</v>
       </c>
@@ -2159,7 +2433,7 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A46</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-githooks</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -2167,7 +2441,7 @@
       </c>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="18.75">
       <c r="A47" s="5" t="s">
         <v>61</v>
       </c>
@@ -2176,7 +2450,7 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A47</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-gitignore</v>
       </c>
       <c r="E47" s="5" t="s">
@@ -2184,7 +2458,7 @@
       </c>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="18.75">
       <c r="A48" s="5" t="s">
         <v>62</v>
       </c>
@@ -2193,7 +2467,7 @@
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A48</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-gitmodules</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -2201,7 +2475,7 @@
       </c>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="18.75">
       <c r="A49" s="5" t="s">
         <v>63</v>
       </c>
@@ -2210,7 +2484,7 @@
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A49</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-gitnamespaces</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -2218,7 +2492,7 @@
       </c>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="18.75">
       <c r="A50" s="5" t="s">
         <v>64</v>
       </c>
@@ -2227,7 +2501,7 @@
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A50</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-gitrepository-layout</v>
       </c>
       <c r="E50" s="5" t="s">
@@ -2235,7 +2509,7 @@
       </c>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="18.75">
       <c r="A51" s="5" t="s">
         <v>65</v>
       </c>
@@ -2244,7 +2518,7 @@
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A51</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-gitrevisions</v>
       </c>
       <c r="E51" s="5" t="s">
@@ -2252,7 +2526,7 @@
       </c>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" ht="18.75">
       <c r="A52" s="5" t="s">
         <v>66</v>
       </c>
@@ -2261,7 +2535,7 @@
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A52</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-gitsubmodules</v>
       </c>
       <c r="E52" s="5" t="s">
@@ -2269,7 +2543,7 @@
       </c>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" ht="18.75">
       <c r="A53" s="5" t="s">
         <v>67</v>
       </c>
@@ -2278,7 +2552,7 @@
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A53</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-gittutorial</v>
       </c>
       <c r="E53" s="5" t="s">
@@ -2286,7 +2560,7 @@
       </c>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" ht="18.75">
       <c r="A54" s="5" t="s">
         <v>68</v>
       </c>
@@ -2295,7 +2569,7 @@
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A54</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-gittutorial-2</v>
       </c>
       <c r="E54" s="5" t="s">
@@ -2303,7 +2577,7 @@
       </c>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" ht="18.75">
       <c r="A55" s="5" t="s">
         <v>69</v>
       </c>
@@ -2312,7 +2586,7 @@
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A55</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-gitworkflows</v>
       </c>
       <c r="E55" s="5" t="s">
@@ -2320,7 +2594,7 @@
       </c>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" ht="18.75">
       <c r="A56" s="5" t="s">
         <v>70</v>
       </c>
@@ -2331,7 +2605,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A56</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-bisect</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -2339,7 +2613,7 @@
       </c>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6" ht="18.75">
       <c r="A57" s="5" t="s">
         <v>72</v>
       </c>
@@ -2350,7 +2624,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A57</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-format-patch</v>
       </c>
       <c r="E57" s="7" t="s">
@@ -2358,7 +2632,7 @@
       </c>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6" ht="18.75">
       <c r="A58" s="5" t="s">
         <v>73</v>
       </c>
@@ -2369,7 +2643,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A58</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-init</v>
       </c>
       <c r="E58" s="7" t="s">
@@ -2377,7 +2651,7 @@
       </c>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6" ht="18.75">
       <c r="A59" s="5" t="s">
         <v>74</v>
       </c>
@@ -2388,7 +2662,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A59</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-rm</v>
       </c>
       <c r="E59" s="7" t="s">
@@ -2396,7 +2670,7 @@
       </c>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:6" ht="18.75">
       <c r="A60" s="5" t="s">
         <v>75</v>
       </c>
@@ -2407,7 +2681,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A60</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-show</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -2415,7 +2689,7 @@
       </c>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:6" ht="18.75">
       <c r="A61" s="5" t="s">
         <v>76</v>
       </c>
@@ -2426,7 +2700,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A61</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-stash</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -2434,7 +2708,7 @@
       </c>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:6" ht="18.75">
       <c r="A62" s="5" t="s">
         <v>77</v>
       </c>
@@ -2445,7 +2719,7 @@
         <v>78</v>
       </c>
       <c r="D62" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A62</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-archive</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -2453,7 +2727,7 @@
       </c>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:6" ht="18.75">
       <c r="A63" s="5" t="s">
         <v>79</v>
       </c>
@@ -2464,7 +2738,7 @@
         <v>78</v>
       </c>
       <c r="D63" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A63</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-describe</v>
       </c>
       <c r="E63" s="7" t="s">
@@ -2472,7 +2746,7 @@
       </c>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:6" ht="18.75">
       <c r="A64" s="5" t="s">
         <v>80</v>
       </c>
@@ -2483,7 +2757,7 @@
         <v>78</v>
       </c>
       <c r="D64" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A64</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-gitk</v>
       </c>
       <c r="E64" s="5" t="s">
@@ -2491,7 +2765,7 @@
       </c>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:6" ht="18.75">
       <c r="A65" s="5" t="s">
         <v>81</v>
       </c>
@@ -2502,7 +2776,7 @@
         <v>78</v>
       </c>
       <c r="D65" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A65</f>
+        <f t="shared" si="1"/>
         <v>chrome https://git-scm.com/docs/git-shortlog</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -2510,7 +2784,7 @@
       </c>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:6" ht="18.75">
       <c r="A66" s="5" t="s">
         <v>82</v>
       </c>
@@ -2521,7 +2795,7 @@
         <v>73</v>
       </c>
       <c r="D66" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A66</f>
+        <f t="shared" ref="D66:D97" si="2">"chrome https://git-scm.com/docs/git-"&amp;A66</f>
         <v>chrome https://git-scm.com/docs/git-clean</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -2529,7 +2803,7 @@
       </c>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:6" ht="18.75">
       <c r="A67" s="5" t="s">
         <v>83</v>
       </c>
@@ -2540,7 +2814,7 @@
         <v>29</v>
       </c>
       <c r="D67" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A67</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-pull</v>
       </c>
       <c r="E67" s="7" t="s">
@@ -2548,7 +2822,7 @@
       </c>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:6" ht="18.75">
       <c r="A68" s="5" t="s">
         <v>84</v>
       </c>
@@ -2559,7 +2833,7 @@
         <v>2</v>
       </c>
       <c r="D68" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A68</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-reset</v>
       </c>
       <c r="E68" s="7" t="s">
@@ -2567,7 +2841,7 @@
       </c>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:6" ht="18.75">
       <c r="A69" s="5" t="s">
         <v>85</v>
       </c>
@@ -2576,7 +2850,7 @@
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A69</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-add</v>
       </c>
       <c r="E69" s="7" t="s">
@@ -2584,7 +2858,7 @@
       </c>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:6" ht="18.75">
       <c r="A70" s="5" t="s">
         <v>86</v>
       </c>
@@ -2593,7 +2867,7 @@
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A70</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-am</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -2601,7 +2875,7 @@
       </c>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:6" ht="18.75">
       <c r="A71" s="5" t="s">
         <v>87</v>
       </c>
@@ -2610,7 +2884,7 @@
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A71</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-branch</v>
       </c>
       <c r="E71" s="7" t="s">
@@ -2618,7 +2892,7 @@
       </c>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:6" ht="18.75">
       <c r="A72" s="5" t="s">
         <v>88</v>
       </c>
@@ -2627,7 +2901,7 @@
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A72</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-bundle</v>
       </c>
       <c r="E72" s="7" t="s">
@@ -2635,7 +2909,7 @@
       </c>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:6" ht="18.75">
       <c r="A73" s="5" t="s">
         <v>89</v>
       </c>
@@ -2644,7 +2918,7 @@
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A73</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-checkout</v>
       </c>
       <c r="E73" s="7" t="s">
@@ -2652,7 +2926,7 @@
       </c>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:6" ht="18.75">
       <c r="A74" s="5" t="s">
         <v>90</v>
       </c>
@@ -2661,7 +2935,7 @@
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A74</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-cherry-pick</v>
       </c>
       <c r="E74" s="7" t="s">
@@ -2669,7 +2943,7 @@
       </c>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:6" ht="18.75">
       <c r="A75" s="5" t="s">
         <v>91</v>
       </c>
@@ -2678,7 +2952,7 @@
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A75</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-citool</v>
       </c>
       <c r="E75" s="7" t="s">
@@ -2686,7 +2960,7 @@
       </c>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:6" ht="18.75">
       <c r="A76" s="5" t="s">
         <v>92</v>
       </c>
@@ -2695,7 +2969,7 @@
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A76</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-clone</v>
       </c>
       <c r="E76" s="7" t="s">
@@ -2703,7 +2977,7 @@
       </c>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:6" ht="18.75">
       <c r="A77" s="5" t="s">
         <v>93</v>
       </c>
@@ -2712,7 +2986,7 @@
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A77</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-commit</v>
       </c>
       <c r="E77" s="7" t="s">
@@ -2720,7 +2994,7 @@
       </c>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:6" ht="18.75">
       <c r="A78" s="5" t="s">
         <v>94</v>
       </c>
@@ -2729,7 +3003,7 @@
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A78</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-diff</v>
       </c>
       <c r="E78" s="7" t="s">
@@ -2737,7 +3011,7 @@
       </c>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:6" ht="18.75">
       <c r="A79" s="5" t="s">
         <v>95</v>
       </c>
@@ -2746,7 +3020,7 @@
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A79</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-fetch</v>
       </c>
       <c r="E79" s="7" t="s">
@@ -2754,7 +3028,7 @@
       </c>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:6" ht="18.75">
       <c r="A80" s="5" t="s">
         <v>96</v>
       </c>
@@ -2763,7 +3037,7 @@
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A80</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-gc</v>
       </c>
       <c r="E80" s="7" t="s">
@@ -2771,7 +3045,7 @@
       </c>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:6" ht="18.75">
       <c r="A81" s="5" t="s">
         <v>97</v>
       </c>
@@ -2780,7 +3054,7 @@
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A81</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-grep</v>
       </c>
       <c r="E81" s="7" t="s">
@@ -2788,7 +3062,7 @@
       </c>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:6" ht="18.75">
       <c r="A82" s="5" t="s">
         <v>98</v>
       </c>
@@ -2797,7 +3071,7 @@
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A82</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-gui</v>
       </c>
       <c r="E82" s="7" t="s">
@@ -2805,7 +3079,7 @@
       </c>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:6" ht="18.75">
       <c r="A83" s="5" t="s">
         <v>99</v>
       </c>
@@ -2814,7 +3088,7 @@
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A83</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-log</v>
       </c>
       <c r="E83" s="7" t="s">
@@ -2822,7 +3096,7 @@
       </c>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:6" ht="18.75">
       <c r="A84" s="5" t="s">
         <v>100</v>
       </c>
@@ -2831,7 +3105,7 @@
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A84</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-merge</v>
       </c>
       <c r="E84" s="7" t="s">
@@ -2839,7 +3113,7 @@
       </c>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:6" ht="18.75">
       <c r="A85" s="5" t="s">
         <v>101</v>
       </c>
@@ -2848,7 +3122,7 @@
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A85</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-mv</v>
       </c>
       <c r="E85" s="7" t="s">
@@ -2856,7 +3130,7 @@
       </c>
       <c r="F85" s="5"/>
     </row>
-    <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:6" ht="18.75">
       <c r="A86" s="5" t="s">
         <v>102</v>
       </c>
@@ -2865,7 +3139,7 @@
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A86</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-notes</v>
       </c>
       <c r="E86" s="7" t="s">
@@ -2873,7 +3147,7 @@
       </c>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:6" ht="18.75">
       <c r="A87" s="5" t="s">
         <v>103</v>
       </c>
@@ -2882,7 +3156,7 @@
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A87</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-push</v>
       </c>
       <c r="E87" s="7" t="s">
@@ -2890,7 +3164,7 @@
       </c>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:6" ht="18.75">
       <c r="A88" s="5" t="s">
         <v>104</v>
       </c>
@@ -2899,7 +3173,7 @@
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A88</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-range-diff</v>
       </c>
       <c r="E88" s="7" t="s">
@@ -2907,7 +3181,7 @@
       </c>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:6" ht="18.75">
       <c r="A89" s="5" t="s">
         <v>105</v>
       </c>
@@ -2916,7 +3190,7 @@
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A89</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-rebase</v>
       </c>
       <c r="E89" s="7" t="s">
@@ -2924,7 +3198,7 @@
       </c>
       <c r="F89" s="5"/>
     </row>
-    <row r="90" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:6" ht="18.75">
       <c r="A90" s="5" t="s">
         <v>106</v>
       </c>
@@ -2933,7 +3207,7 @@
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A90</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-restore</v>
       </c>
       <c r="E90" s="7" t="s">
@@ -2941,7 +3215,7 @@
       </c>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:6" ht="18.75">
       <c r="A91" s="5" t="s">
         <v>107</v>
       </c>
@@ -2950,7 +3224,7 @@
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A91</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-revert</v>
       </c>
       <c r="E91" s="7" t="s">
@@ -2958,7 +3232,7 @@
       </c>
       <c r="F91" s="5"/>
     </row>
-    <row r="92" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:6" ht="18.75">
       <c r="A92" s="5" t="s">
         <v>108</v>
       </c>
@@ -2967,7 +3241,7 @@
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A92</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-sparse-checkout</v>
       </c>
       <c r="E92" s="7" t="s">
@@ -2975,7 +3249,7 @@
       </c>
       <c r="F92" s="5"/>
     </row>
-    <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:6" ht="18.75">
       <c r="A93" s="5" t="s">
         <v>109</v>
       </c>
@@ -2984,7 +3258,7 @@
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A93</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-status</v>
       </c>
       <c r="E93" s="7" t="s">
@@ -2992,7 +3266,7 @@
       </c>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:6" ht="18.75">
       <c r="A94" s="5" t="s">
         <v>110</v>
       </c>
@@ -3001,7 +3275,7 @@
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A94</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-submodule</v>
       </c>
       <c r="E94" s="7" t="s">
@@ -3009,7 +3283,7 @@
       </c>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:6" ht="18.75">
       <c r="A95" s="5" t="s">
         <v>111</v>
       </c>
@@ -3018,7 +3292,7 @@
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A95</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-switch</v>
       </c>
       <c r="E95" s="7" t="s">
@@ -3026,7 +3300,7 @@
       </c>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:6" ht="18.75">
       <c r="A96" s="5" t="s">
         <v>112</v>
       </c>
@@ -3035,7 +3309,7 @@
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A96</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-tag</v>
       </c>
       <c r="E96" s="7" t="s">
@@ -3043,7 +3317,7 @@
       </c>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:6" ht="18.75">
       <c r="A97" s="5" t="s">
         <v>2</v>
       </c>
@@ -3052,7 +3326,7 @@
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A97</f>
+        <f t="shared" si="2"/>
         <v>chrome https://git-scm.com/docs/git-worktree</v>
       </c>
       <c r="E97" s="7" t="s">
@@ -3060,7 +3334,7 @@
       </c>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:6" ht="18.75">
       <c r="A98" s="5" t="s">
         <v>113</v>
       </c>
@@ -3071,7 +3345,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A98</f>
+        <f t="shared" ref="D98:D129" si="3">"chrome https://git-scm.com/docs/git-"&amp;A98</f>
         <v>chrome https://git-scm.com/docs/git-diff-tree</v>
       </c>
       <c r="E98" s="7" t="s">
@@ -3079,7 +3353,7 @@
       </c>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:6" ht="18.75">
       <c r="A99" s="5" t="s">
         <v>115</v>
       </c>
@@ -3090,7 +3364,7 @@
         <v>78</v>
       </c>
       <c r="D99" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A99</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-get-tar-commit-id</v>
       </c>
       <c r="E99" s="7" t="s">
@@ -3098,7 +3372,7 @@
       </c>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:6" ht="18.75">
       <c r="A100" s="5" t="s">
         <v>116</v>
       </c>
@@ -3109,7 +3383,7 @@
         <v>2</v>
       </c>
       <c r="D100" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A100</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-rev-parse</v>
       </c>
       <c r="E100" s="7" t="s">
@@ -3117,7 +3391,7 @@
       </c>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:6" ht="18.75">
       <c r="A101" s="5" t="s">
         <v>117</v>
       </c>
@@ -3126,7 +3400,7 @@
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A101</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-cat-file</v>
       </c>
       <c r="E101" s="7" t="s">
@@ -3134,7 +3408,7 @@
       </c>
       <c r="F101" s="5"/>
     </row>
-    <row r="102" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:6" ht="18.75">
       <c r="A102" s="5" t="s">
         <v>118</v>
       </c>
@@ -3143,7 +3417,7 @@
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A102</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-cherry</v>
       </c>
       <c r="E102" s="7" t="s">
@@ -3151,7 +3425,7 @@
       </c>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:6" ht="18.75">
       <c r="A103" s="5" t="s">
         <v>119</v>
       </c>
@@ -3160,7 +3434,7 @@
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A103</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-diff-files</v>
       </c>
       <c r="E103" s="7" t="s">
@@ -3168,7 +3442,7 @@
       </c>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:6" ht="18.75">
       <c r="A104" s="5" t="s">
         <v>120</v>
       </c>
@@ -3177,7 +3451,7 @@
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A104</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-diff-index</v>
       </c>
       <c r="E104" s="7" t="s">
@@ -3185,7 +3459,7 @@
       </c>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:6" ht="18.75">
       <c r="A105" s="5" t="s">
         <v>121</v>
       </c>
@@ -3194,7 +3468,7 @@
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A105</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-for-each-ref</v>
       </c>
       <c r="E105" s="7" t="s">
@@ -3202,7 +3476,7 @@
       </c>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:6" ht="18.75">
       <c r="A106" s="5" t="s">
         <v>122</v>
       </c>
@@ -3211,7 +3485,7 @@
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A106</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-ls-files</v>
       </c>
       <c r="E106" s="7" t="s">
@@ -3219,7 +3493,7 @@
       </c>
       <c r="F106" s="5"/>
     </row>
-    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:6" ht="18.75">
       <c r="A107" s="5" t="s">
         <v>123</v>
       </c>
@@ -3228,7 +3502,7 @@
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A107</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-ls-remote</v>
       </c>
       <c r="E107" s="7" t="s">
@@ -3236,7 +3510,7 @@
       </c>
       <c r="F107" s="5"/>
     </row>
-    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:6" ht="18.75">
       <c r="A108" s="5" t="s">
         <v>124</v>
       </c>
@@ -3245,7 +3519,7 @@
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A108</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-ls-tree</v>
       </c>
       <c r="E108" s="7" t="s">
@@ -3253,7 +3527,7 @@
       </c>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:6" ht="18.75">
       <c r="A109" s="5" t="s">
         <v>125</v>
       </c>
@@ -3262,7 +3536,7 @@
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A109</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-merge-base</v>
       </c>
       <c r="E109" s="7" t="s">
@@ -3270,7 +3544,7 @@
       </c>
       <c r="F109" s="5"/>
     </row>
-    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:6" ht="18.75">
       <c r="A110" s="5" t="s">
         <v>126</v>
       </c>
@@ -3279,7 +3553,7 @@
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A110</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-name-rev</v>
       </c>
       <c r="E110" s="7" t="s">
@@ -3287,7 +3561,7 @@
       </c>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:6" ht="18.75">
       <c r="A111" s="5" t="s">
         <v>127</v>
       </c>
@@ -3296,7 +3570,7 @@
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A111</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-pack-redundant</v>
       </c>
       <c r="E111" s="7" t="s">
@@ -3304,7 +3578,7 @@
       </c>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:6" ht="18.75">
       <c r="A112" s="5" t="s">
         <v>128</v>
       </c>
@@ -3313,7 +3587,7 @@
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A112</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-rev-list</v>
       </c>
       <c r="E112" s="7" t="s">
@@ -3321,7 +3595,7 @@
       </c>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:6" ht="18.75">
       <c r="A113" s="5" t="s">
         <v>129</v>
       </c>
@@ -3330,7 +3604,7 @@
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A113</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-show-index</v>
       </c>
       <c r="E113" s="7" t="s">
@@ -3338,7 +3612,7 @@
       </c>
       <c r="F113" s="5"/>
     </row>
-    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:6" ht="18.75">
       <c r="A114" s="5" t="s">
         <v>130</v>
       </c>
@@ -3347,7 +3621,7 @@
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A114</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-show-ref</v>
       </c>
       <c r="E114" s="7" t="s">
@@ -3355,7 +3629,7 @@
       </c>
       <c r="F114" s="5"/>
     </row>
-    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:6" ht="18.75">
       <c r="A115" s="5" t="s">
         <v>131</v>
       </c>
@@ -3364,7 +3638,7 @@
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A115</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-unpack-file</v>
       </c>
       <c r="E115" s="7" t="s">
@@ -3372,7 +3646,7 @@
       </c>
       <c r="F115" s="5"/>
     </row>
-    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:6" ht="18.75">
       <c r="A116" s="5" t="s">
         <v>132</v>
       </c>
@@ -3381,7 +3655,7 @@
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A116</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-var</v>
       </c>
       <c r="E116" s="7" t="s">
@@ -3389,7 +3663,7 @@
       </c>
       <c r="F116" s="5"/>
     </row>
-    <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:6" ht="18.75">
       <c r="A117" s="5" t="s">
         <v>133</v>
       </c>
@@ -3398,7 +3672,7 @@
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A117</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-verify-pack</v>
       </c>
       <c r="E117" s="7" t="s">
@@ -3406,7 +3680,7 @@
       </c>
       <c r="F117" s="5"/>
     </row>
-    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:6" ht="18.75">
       <c r="A118" s="5" t="s">
         <v>134</v>
       </c>
@@ -3417,7 +3691,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A118</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-commit-tree</v>
       </c>
       <c r="E118" s="7" t="s">
@@ -3425,7 +3699,7 @@
       </c>
       <c r="F118" s="5"/>
     </row>
-    <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:6" ht="18.75">
       <c r="A119" s="5" t="s">
         <v>136</v>
       </c>
@@ -3436,7 +3710,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A119</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-hash-object</v>
       </c>
       <c r="E119" s="7" t="s">
@@ -3444,7 +3718,7 @@
       </c>
       <c r="F119" s="5"/>
     </row>
-    <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:6" ht="18.75">
       <c r="A120" s="5" t="s">
         <v>137</v>
       </c>
@@ -3455,7 +3729,7 @@
         <v>14</v>
       </c>
       <c r="D120" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A120</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-read-tree</v>
       </c>
       <c r="E120" s="7" t="s">
@@ -3463,7 +3737,7 @@
       </c>
       <c r="F120" s="5"/>
     </row>
-    <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:6" ht="18.75">
       <c r="A121" s="5" t="s">
         <v>138</v>
       </c>
@@ -3474,7 +3748,7 @@
         <v>14</v>
       </c>
       <c r="D121" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A121</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-symbolic-ref</v>
       </c>
       <c r="E121" s="7" t="s">
@@ -3482,7 +3756,7 @@
       </c>
       <c r="F121" s="5"/>
     </row>
-    <row r="122" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:6" ht="18.75">
       <c r="A122" s="5" t="s">
         <v>139</v>
       </c>
@@ -3493,7 +3767,7 @@
         <v>73</v>
       </c>
       <c r="D122" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A122</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-index-pack</v>
       </c>
       <c r="E122" s="7" t="s">
@@ -3501,7 +3775,7 @@
       </c>
       <c r="F122" s="5"/>
     </row>
-    <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:6" ht="18.75">
       <c r="A123" s="5" t="s">
         <v>140</v>
       </c>
@@ -3512,7 +3786,7 @@
         <v>29</v>
       </c>
       <c r="D123" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A123</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-prune-packed</v>
       </c>
       <c r="E123" s="7" t="s">
@@ -3520,7 +3794,7 @@
       </c>
       <c r="F123" s="5"/>
     </row>
-    <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:6" ht="18.75">
       <c r="A124" s="5" t="s">
         <v>141</v>
       </c>
@@ -3531,7 +3805,7 @@
         <v>2</v>
       </c>
       <c r="D124" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A124</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-mktree</v>
       </c>
       <c r="E124" s="7" t="s">
@@ -3539,7 +3813,7 @@
       </c>
       <c r="F124" s="5"/>
     </row>
-    <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:6" ht="18.75">
       <c r="A125" s="5" t="s">
         <v>142</v>
       </c>
@@ -3548,7 +3822,7 @@
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A125</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-apply</v>
       </c>
       <c r="E125" s="7" t="s">
@@ -3556,7 +3830,7 @@
       </c>
       <c r="F125" s="5"/>
     </row>
-    <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:6" ht="18.75">
       <c r="A126" s="5" t="s">
         <v>143</v>
       </c>
@@ -3565,7 +3839,7 @@
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A126</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-checkout-index</v>
       </c>
       <c r="E126" s="7" t="s">
@@ -3573,7 +3847,7 @@
       </c>
       <c r="F126" s="5"/>
     </row>
-    <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:6" ht="18.75">
       <c r="A127" s="5" t="s">
         <v>144</v>
       </c>
@@ -3582,7 +3856,7 @@
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A127</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-commit-graph</v>
       </c>
       <c r="E127" s="7" t="s">
@@ -3590,7 +3864,7 @@
       </c>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:6" ht="18.75">
       <c r="A128" s="5" t="s">
         <v>145</v>
       </c>
@@ -3599,7 +3873,7 @@
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A128</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-merge-file</v>
       </c>
       <c r="E128" s="7" t="s">
@@ -3607,7 +3881,7 @@
       </c>
       <c r="F128" s="5"/>
     </row>
-    <row r="129" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:6" ht="18.75">
       <c r="A129" s="5" t="s">
         <v>146</v>
       </c>
@@ -3616,7 +3890,7 @@
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A129</f>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-merge-index</v>
       </c>
       <c r="E129" s="7" t="s">
@@ -3624,7 +3898,7 @@
       </c>
       <c r="F129" s="5"/>
     </row>
-    <row r="130" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:6" ht="18.75">
       <c r="A130" s="5" t="s">
         <v>147</v>
       </c>
@@ -3633,7 +3907,7 @@
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A130</f>
+        <f t="shared" ref="D130:D166" si="4">"chrome https://git-scm.com/docs/git-"&amp;A130</f>
         <v>chrome https://git-scm.com/docs/git-mktag</v>
       </c>
       <c r="E130" s="7" t="s">
@@ -3641,7 +3915,7 @@
       </c>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:6" ht="18.75">
       <c r="A131" s="5" t="s">
         <v>148</v>
       </c>
@@ -3650,7 +3924,7 @@
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A131</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-multi-pack-index</v>
       </c>
       <c r="E131" s="7" t="s">
@@ -3658,7 +3932,7 @@
       </c>
       <c r="F131" s="5"/>
     </row>
-    <row r="132" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:6" ht="18.75">
       <c r="A132" s="5" t="s">
         <v>149</v>
       </c>
@@ -3667,7 +3941,7 @@
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A132</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-pack-objects</v>
       </c>
       <c r="E132" s="7" t="s">
@@ -3675,7 +3949,7 @@
       </c>
       <c r="F132" s="5"/>
     </row>
-    <row r="133" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:6" ht="18.75">
       <c r="A133" s="5" t="s">
         <v>150</v>
       </c>
@@ -3684,7 +3958,7 @@
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A133</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-unpack-objects</v>
       </c>
       <c r="E133" s="7" t="s">
@@ -3692,7 +3966,7 @@
       </c>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:6" ht="18.75">
       <c r="A134" s="5" t="s">
         <v>151</v>
       </c>
@@ -3701,7 +3975,7 @@
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A134</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-update-index</v>
       </c>
       <c r="E134" s="7" t="s">
@@ -3709,7 +3983,7 @@
       </c>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:6" ht="18.75">
       <c r="A135" s="5" t="s">
         <v>152</v>
       </c>
@@ -3718,7 +3992,7 @@
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A135</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-update-ref</v>
       </c>
       <c r="E135" s="7" t="s">
@@ -3726,7 +4000,7 @@
       </c>
       <c r="F135" s="5"/>
     </row>
-    <row r="136" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:6" ht="18.75">
       <c r="A136" s="5" t="s">
         <v>153</v>
       </c>
@@ -3735,7 +4009,7 @@
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A136</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-write-tree</v>
       </c>
       <c r="E136" s="7" t="s">
@@ -3743,7 +4017,7 @@
       </c>
       <c r="F136" s="5"/>
     </row>
-    <row r="137" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:6" ht="18.75">
       <c r="A137" s="5" t="s">
         <v>154</v>
       </c>
@@ -3754,7 +4028,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A137</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-check-ref-format</v>
       </c>
       <c r="E137" s="7" t="s">
@@ -3762,7 +4036,7 @@
       </c>
       <c r="F137" s="5"/>
     </row>
-    <row r="138" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:6" ht="18.75">
       <c r="A138" s="5" t="s">
         <v>156</v>
       </c>
@@ -3773,7 +4047,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A138</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-merge-one-file</v>
       </c>
       <c r="E138" s="7" t="s">
@@ -3781,7 +4055,7 @@
       </c>
       <c r="F138" s="5"/>
     </row>
-    <row r="139" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:6" ht="18.75">
       <c r="A139" s="5" t="s">
         <v>157</v>
       </c>
@@ -3792,7 +4066,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A139</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-patch-id</v>
       </c>
       <c r="E139" s="7" t="s">
@@ -3800,7 +4074,7 @@
       </c>
       <c r="F139" s="5"/>
     </row>
-    <row r="140" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:6" ht="18.75">
       <c r="A140" s="5" t="s">
         <v>158</v>
       </c>
@@ -3811,7 +4085,7 @@
         <v>14</v>
       </c>
       <c r="D140" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A140</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-column</v>
       </c>
       <c r="E140" s="7" t="s">
@@ -3819,7 +4093,7 @@
       </c>
       <c r="F140" s="5"/>
     </row>
-    <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:6" ht="18.75">
       <c r="A141" s="5" t="s">
         <v>159</v>
       </c>
@@ -3830,7 +4104,7 @@
         <v>14</v>
       </c>
       <c r="D141" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A141</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-mailsplit</v>
       </c>
       <c r="E141" s="7" t="s">
@@ -3838,7 +4112,7 @@
       </c>
       <c r="F141" s="5"/>
     </row>
-    <row r="142" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:6" ht="18.75">
       <c r="A142" s="5" t="s">
         <v>160</v>
       </c>
@@ -3849,7 +4123,7 @@
         <v>2</v>
       </c>
       <c r="D142" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A142</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-sh-setup</v>
       </c>
       <c r="E142" s="5" t="s">
@@ -3857,7 +4131,7 @@
       </c>
       <c r="F142" s="5"/>
     </row>
-    <row r="143" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:6" ht="18.75">
       <c r="A143" s="5" t="s">
         <v>161</v>
       </c>
@@ -3866,7 +4140,7 @@
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A143</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-check-attr</v>
       </c>
       <c r="E143" s="7" t="s">
@@ -3874,7 +4148,7 @@
       </c>
       <c r="F143" s="5"/>
     </row>
-    <row r="144" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:6" ht="18.75">
       <c r="A144" s="5" t="s">
         <v>162</v>
       </c>
@@ -3883,7 +4157,7 @@
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A144</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-check-ignore</v>
       </c>
       <c r="E144" s="7" t="s">
@@ -3891,7 +4165,7 @@
       </c>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:6" ht="18.75">
       <c r="A145" s="5" t="s">
         <v>163</v>
       </c>
@@ -3900,7 +4174,7 @@
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A145</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-check-mailmap</v>
       </c>
       <c r="E145" s="7" t="s">
@@ -3908,7 +4182,7 @@
       </c>
       <c r="F145" s="5"/>
     </row>
-    <row r="146" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:6" ht="18.75">
       <c r="A146" s="5" t="s">
         <v>164</v>
       </c>
@@ -3917,7 +4191,7 @@
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A146</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-credential</v>
       </c>
       <c r="E146" s="7" t="s">
@@ -3925,7 +4199,7 @@
       </c>
       <c r="F146" s="5"/>
     </row>
-    <row r="147" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:6" ht="18.75">
       <c r="A147" s="5" t="s">
         <v>165</v>
       </c>
@@ -3934,7 +4208,7 @@
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A147</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-credential-cache</v>
       </c>
       <c r="E147" s="7" t="s">
@@ -3942,7 +4216,7 @@
       </c>
       <c r="F147" s="5"/>
     </row>
-    <row r="148" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:6" ht="18.75">
       <c r="A148" s="5" t="s">
         <v>166</v>
       </c>
@@ -3951,7 +4225,7 @@
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A148</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-credential-store</v>
       </c>
       <c r="E148" s="7" t="s">
@@ -3959,7 +4233,7 @@
       </c>
       <c r="F148" s="5"/>
     </row>
-    <row r="149" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:6" ht="18.75">
       <c r="A149" s="5" t="s">
         <v>167</v>
       </c>
@@ -3968,7 +4242,7 @@
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A149</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-fmt-merge-msg</v>
       </c>
       <c r="E149" s="7" t="s">
@@ -3976,7 +4250,7 @@
       </c>
       <c r="F149" s="5"/>
     </row>
-    <row r="150" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:6" ht="18.75">
       <c r="A150" s="5" t="s">
         <v>168</v>
       </c>
@@ -3985,7 +4259,7 @@
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A150</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-interpret-trailers</v>
       </c>
       <c r="E150" s="7" t="s">
@@ -3993,7 +4267,7 @@
       </c>
       <c r="F150" s="5"/>
     </row>
-    <row r="151" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:6" ht="18.75">
       <c r="A151" s="5" t="s">
         <v>169</v>
       </c>
@@ -4002,7 +4276,7 @@
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A151</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-mailinfo</v>
       </c>
       <c r="E151" s="7" t="s">
@@ -4010,7 +4284,7 @@
       </c>
       <c r="F151" s="5"/>
     </row>
-    <row r="152" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:6" ht="18.75">
       <c r="A152" s="5" t="s">
         <v>170</v>
       </c>
@@ -4019,7 +4293,7 @@
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A152</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-sh-i18n</v>
       </c>
       <c r="E152" s="5" t="s">
@@ -4027,7 +4301,7 @@
       </c>
       <c r="F152" s="5"/>
     </row>
-    <row r="153" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:6" ht="18.75">
       <c r="A153" s="5" t="s">
         <v>171</v>
       </c>
@@ -4036,7 +4310,7 @@
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A153</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-stripspace</v>
       </c>
       <c r="E153" s="7" t="s">
@@ -4044,7 +4318,7 @@
       </c>
       <c r="F153" s="5"/>
     </row>
-    <row r="154" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:6" ht="18.75">
       <c r="A154" s="5" t="s">
         <v>172</v>
       </c>
@@ -4055,7 +4329,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A154</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-receive-pack</v>
       </c>
       <c r="E154" s="7" t="s">
@@ -4063,7 +4337,7 @@
       </c>
       <c r="F154" s="5"/>
     </row>
-    <row r="155" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:6" ht="18.75">
       <c r="A155" s="5" t="s">
         <v>174</v>
       </c>
@@ -4072,7 +4346,7 @@
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A155</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-http-fetch</v>
       </c>
       <c r="E155" s="7" t="s">
@@ -4080,7 +4354,7 @@
       </c>
       <c r="F155" s="5"/>
     </row>
-    <row r="156" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:6" ht="18.75">
       <c r="A156" s="5" t="s">
         <v>175</v>
       </c>
@@ -4089,7 +4363,7 @@
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A156</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-http-push</v>
       </c>
       <c r="E156" s="7" t="s">
@@ -4097,7 +4371,7 @@
       </c>
       <c r="F156" s="5"/>
     </row>
-    <row r="157" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:6" ht="18.75">
       <c r="A157" s="5" t="s">
         <v>176</v>
       </c>
@@ -4106,7 +4380,7 @@
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A157</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-parse-remote</v>
       </c>
       <c r="E157" s="5" t="s">
@@ -4114,7 +4388,7 @@
       </c>
       <c r="F157" s="5"/>
     </row>
-    <row r="158" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:6" ht="18.75">
       <c r="A158" s="5" t="s">
         <v>177</v>
       </c>
@@ -4123,7 +4397,7 @@
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A158</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-shell</v>
       </c>
       <c r="E158" s="5" t="s">
@@ -4131,7 +4405,7 @@
       </c>
       <c r="F158" s="5"/>
     </row>
-    <row r="159" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:6" ht="18.75">
       <c r="A159" s="5" t="s">
         <v>178</v>
       </c>
@@ -4140,7 +4414,7 @@
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A159</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-upload-archive</v>
       </c>
       <c r="E159" s="7" t="s">
@@ -4148,7 +4422,7 @@
       </c>
       <c r="F159" s="5"/>
     </row>
-    <row r="160" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:6" ht="18.75">
       <c r="A160" s="5" t="s">
         <v>179</v>
       </c>
@@ -4157,7 +4431,7 @@
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A160</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-upload-pack</v>
       </c>
       <c r="E160" s="7" t="s">
@@ -4165,7 +4439,7 @@
       </c>
       <c r="F160" s="5"/>
     </row>
-    <row r="161" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:6" ht="18.75">
       <c r="A161" s="5" t="s">
         <v>180</v>
       </c>
@@ -4174,7 +4448,7 @@
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A161</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-daemon</v>
       </c>
       <c r="E161" s="7" t="s">
@@ -4182,7 +4456,7 @@
       </c>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:6" ht="18.75">
       <c r="A162" s="5" t="s">
         <v>182</v>
       </c>
@@ -4191,7 +4465,7 @@
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A162</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-fetch-pack</v>
       </c>
       <c r="E162" s="7" t="s">
@@ -4199,7 +4473,7 @@
       </c>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:6" ht="18.75">
       <c r="A163" s="5" t="s">
         <v>183</v>
       </c>
@@ -4208,7 +4482,7 @@
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A163</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-http-backend</v>
       </c>
       <c r="E163" s="7" t="s">
@@ -4216,7 +4490,7 @@
       </c>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:6" ht="18.75">
       <c r="A164" s="5" t="s">
         <v>184</v>
       </c>
@@ -4225,7 +4499,7 @@
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A164</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-send-pack</v>
       </c>
       <c r="E164" s="7" t="s">
@@ -4233,7 +4507,7 @@
       </c>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:6" ht="18.75">
       <c r="A165" s="5" t="s">
         <v>185</v>
       </c>
@@ -4242,7 +4516,7 @@
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A165</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-update-server-info</v>
       </c>
       <c r="E165" s="7" t="s">
@@ -4250,7 +4524,7 @@
       </c>
       <c r="F165" s="5"/>
     </row>
-    <row r="166" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:6" ht="18.75">
       <c r="A166" s="5" t="s">
         <v>186</v>
       </c>
@@ -4259,7 +4533,7 @@
         <v>78</v>
       </c>
       <c r="D166" s="6" t="str">
-        <f aca="false">"chrome https://git-scm.com/docs/git-"&amp;A166</f>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-stage</v>
       </c>
       <c r="E166" s="7" t="s">
@@ -4268,808 +4542,769 @@
       <c r="F166" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F166">
-    <filterColumn colId="4">
-      <customFilters and="true">
-        <customFilter operator="equal" val="0"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:F166" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="3.33"/>
+    <col min="1" max="1025" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="18.75">
       <c r="A1" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" ht="18.75">
       <c r="A5" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" ht="18.75">
       <c r="A8" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" ht="18.75">
       <c r="A10" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" ht="18.75">
       <c r="B11" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" ht="18.75">
       <c r="A14" s="8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" ht="18.75">
       <c r="B15" s="8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" ht="18.75">
       <c r="B16" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2" ht="18.75">
       <c r="A20" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2" ht="18.75">
       <c r="B22" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18.75">
+      <c r="B23" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18.75">
+      <c r="B24" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="77.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.41"/>
+    <col min="1" max="1" width="27.75" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
+    <col min="4" max="1025" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75">
+      <c r="B2" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="8" t="s">
+    <row r="3" spans="1:3" ht="18.75">
+      <c r="A3" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B3" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+    <row r="4" spans="1:3" ht="18.75">
+      <c r="A4" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:3" ht="18.75">
+      <c r="A5" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="C5" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="8" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="18.75">
+      <c r="A6" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="B6" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75">
+      <c r="A7" s="8" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="B7" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>213</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="70.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="118.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="9.41"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="35.875" customWidth="1"/>
+    <col min="5" max="5" width="70.875" customWidth="1"/>
+    <col min="6" max="6" width="118.875" customWidth="1"/>
+    <col min="7" max="1025" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18.75">
+      <c r="A2" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="B2" s="11" t="str">
+        <f t="shared" ref="B2:B24" si="0">"${_"&amp;C2&amp;"}"</f>
+        <v>${_-s}</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="11" t="str">
-        <f aca="false">"${_"&amp;C2&amp;"}"</f>
-        <v>${_-s}</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>220</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="str">
-        <f aca="false">IF(A3&lt;&gt;"",A2&amp;B2&amp;",",A2&amp;B2)</f>
+        <f t="shared" ref="E2:E24" si="1">IF(A3&lt;&gt;"",A2&amp;B2&amp;",",A2&amp;B2)</f>
         <v>[switch]${_-s},</v>
       </c>
       <c r="F2" s="11" t="str">
-        <f aca="false">IF(LEFT(A2,13) ="[ValidateSet(","if("&amp;B2&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C2&amp;"="&amp;""""&amp;" + "&amp;B2&amp;"}","if("&amp;B2&amp;"){$_expression += "&amp;""""&amp;" "&amp;C2&amp;""""&amp;"}")</f>
+        <f t="shared" ref="F2:F24" si="2">IF(LEFT(A2,13) ="[ValidateSet(","if("&amp;B2&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C2&amp;"="&amp;""""&amp;" + "&amp;B2&amp;"}","if("&amp;B2&amp;"){$_expression += "&amp;""""&amp;" "&amp;C2&amp;""""&amp;"}")</f>
         <v>if(${_-s}){$_expression += " -s"}</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>${_--short}</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>219</v>
-      </c>
-      <c r="B3" s="11" t="str">
-        <f aca="false">"${_"&amp;C3&amp;"}"</f>
-        <v>${_--short}</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="str">
-        <f aca="false">IF(A4&lt;&gt;"",A3&amp;B3&amp;",",A3&amp;B3)</f>
+        <f t="shared" si="1"/>
         <v>[switch]${_--short},</v>
       </c>
       <c r="F3" s="11" t="str">
-        <f aca="false">IF(LEFT(A3,13) ="[ValidateSet(","if("&amp;B3&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C3&amp;"="&amp;""""&amp;" + "&amp;B3&amp;"}","if("&amp;B3&amp;"){$_expression += "&amp;""""&amp;" "&amp;C3&amp;""""&amp;"}")</f>
+        <f t="shared" si="2"/>
         <v>if(${_--short}){$_expression += " --short"}</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="18.75">
       <c r="A4" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B4" s="11" t="str">
-        <f aca="false">"${_"&amp;C4&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>${_-b}</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="str">
-        <f aca="false">IF(A5&lt;&gt;"",A4&amp;B4&amp;",",A4&amp;B4)</f>
+        <f t="shared" si="1"/>
         <v>[switch]${_-b},</v>
       </c>
       <c r="F4" s="11" t="str">
-        <f aca="false">IF(LEFT(A4,13) ="[ValidateSet(","if("&amp;B4&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C4&amp;"="&amp;""""&amp;" + "&amp;B4&amp;"}","if("&amp;B4&amp;"){$_expression += "&amp;""""&amp;" "&amp;C4&amp;""""&amp;"}")</f>
+        <f t="shared" si="2"/>
         <v>if(${_-b}){$_expression += " -b"}</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="18.75">
       <c r="A5" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B5" s="11" t="str">
-        <f aca="false">"${_"&amp;C5&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>${_--branch}</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="str">
-        <f aca="false">IF(A6&lt;&gt;"",A5&amp;B5&amp;",",A5&amp;B5)</f>
+        <f t="shared" si="1"/>
         <v>[switch]${_--branch},</v>
       </c>
       <c r="F5" s="11" t="str">
-        <f aca="false">IF(LEFT(A5,13) ="[ValidateSet(","if("&amp;B5&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C5&amp;"="&amp;""""&amp;" + "&amp;B5&amp;"}","if("&amp;B5&amp;"){$_expression += "&amp;""""&amp;" "&amp;C5&amp;""""&amp;"}")</f>
+        <f t="shared" si="2"/>
         <v>if(${_--branch}){$_expression += " --branch"}</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="18.75">
       <c r="A6" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B6" s="11" t="str">
-        <f aca="false">"${_"&amp;C6&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>${_--show-stash}</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="str">
-        <f aca="false">IF(A7&lt;&gt;"",A6&amp;B6&amp;",",A6&amp;B6)</f>
+        <f t="shared" si="1"/>
         <v>[switch]${_--show-stash},</v>
       </c>
       <c r="F6" s="11" t="str">
-        <f aca="false">IF(LEFT(A6,13) ="[ValidateSet(","if("&amp;B6&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C6&amp;"="&amp;""""&amp;" + "&amp;B6&amp;"}","if("&amp;B6&amp;"){$_expression += "&amp;""""&amp;" "&amp;C6&amp;""""&amp;"}")</f>
+        <f t="shared" si="2"/>
         <v>if(${_--show-stash}){$_expression += " --show-stash"}</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="18.75">
       <c r="A7" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>${_--porcelain}</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="B7" s="11" t="str">
-        <f aca="false">"${_"&amp;C7&amp;"}"</f>
-        <v>${_--porcelain}</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="E7" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>[ValidateSet("version", "dummy", "dummy2")]${_--porcelain},</v>
+      </c>
+      <c r="F7" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>if(${_--porcelain} -ne $null){$_expression += " --porcelain=" + ${_--porcelain}}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75">
+      <c r="A8" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>${_--long}</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="11" t="str">
-        <f aca="false">IF(A8&lt;&gt;"",A7&amp;B7&amp;",",A7&amp;B7)</f>
-        <v>[ValidateSet("version", "dummy", "dummy2")]${_--porcelain},</v>
-      </c>
-      <c r="F7" s="11" t="str">
-        <f aca="false">IF(LEFT(A7,13) ="[ValidateSet(","if("&amp;B7&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C7&amp;"="&amp;""""&amp;" + "&amp;B7&amp;"}","if("&amp;B7&amp;"){$_expression += "&amp;""""&amp;" "&amp;C7&amp;""""&amp;"}")</f>
-        <v>if(${_--porcelain} -ne $null){$_expression += " --porcelain=" + ${_--porcelain}}</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="11" t="str">
-        <f aca="false">"${_"&amp;C8&amp;"}"</f>
-        <v>${_--long}</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>228</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="str">
-        <f aca="false">IF(A9&lt;&gt;"",A8&amp;B8&amp;",",A8&amp;B8)</f>
+        <f t="shared" si="1"/>
         <v>[switch]${_--long},</v>
       </c>
       <c r="F8" s="11" t="str">
-        <f aca="false">IF(LEFT(A8,13) ="[ValidateSet(","if("&amp;B8&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C8&amp;"="&amp;""""&amp;" + "&amp;B8&amp;"}","if("&amp;B8&amp;"){$_expression += "&amp;""""&amp;" "&amp;C8&amp;""""&amp;"}")</f>
+        <f t="shared" si="2"/>
         <v>if(${_--long}){$_expression += " --long"}</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B9" s="11" t="str">
-        <f aca="false">"${_"&amp;C9&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>${_-v}</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="str">
-        <f aca="false">IF(A10&lt;&gt;"",A9&amp;B9&amp;",",A9&amp;B9)</f>
+        <f t="shared" si="1"/>
         <v>[switch]${_-v},</v>
       </c>
       <c r="F9" s="11" t="str">
-        <f aca="false">IF(LEFT(A9,13) ="[ValidateSet(","if("&amp;B9&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C9&amp;"="&amp;""""&amp;" + "&amp;B9&amp;"}","if("&amp;B9&amp;"){$_expression += "&amp;""""&amp;" "&amp;C9&amp;""""&amp;"}")</f>
+        <f t="shared" si="2"/>
         <v>if(${_-v}){$_expression += " -v"}</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B10" s="11" t="str">
-        <f aca="false">"${_"&amp;C10&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>${_--verbose}</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="str">
-        <f aca="false">IF(A11&lt;&gt;"",A10&amp;B10&amp;",",A10&amp;B10)</f>
+        <f t="shared" si="1"/>
         <v>[switch]${_--verbose},</v>
       </c>
       <c r="F10" s="11" t="str">
-        <f aca="false">IF(LEFT(A10,13) ="[ValidateSet(","if("&amp;B10&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C10&amp;"="&amp;""""&amp;" + "&amp;B10&amp;"}","if("&amp;B10&amp;"){$_expression += "&amp;""""&amp;" "&amp;C10&amp;""""&amp;"}")</f>
+        <f t="shared" si="2"/>
         <v>if(${_--verbose}){$_expression += " --verbose"}</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>${_-u}</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="B11" s="11" t="str">
-        <f aca="false">"${_"&amp;C11&amp;"}"</f>
-        <v>${_-u}</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="E11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>[ValidateSet("mode", "dummy", "dummy2")]${_-u},</v>
+      </c>
+      <c r="F11" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>if(${_-u} -ne $null){$_expression += " -u=" + ${_-u}}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75">
+      <c r="A12" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>${_--untracked-files}</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="E11" s="11" t="str">
-        <f aca="false">IF(A12&lt;&gt;"",A11&amp;B11&amp;",",A11&amp;B11)</f>
-        <v>[ValidateSet("mode", "dummy", "dummy2")]${_-u},</v>
-      </c>
-      <c r="F11" s="11" t="str">
-        <f aca="false">IF(LEFT(A11,13) ="[ValidateSet(","if("&amp;B11&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C11&amp;"="&amp;""""&amp;" + "&amp;B11&amp;"}","if("&amp;B11&amp;"){$_expression += "&amp;""""&amp;" "&amp;C11&amp;""""&amp;"}")</f>
-        <v>if(${_-u} -ne $null){$_expression += " -u=" + ${_-u}}</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B12" s="11" t="str">
-        <f aca="false">"${_"&amp;C12&amp;"}"</f>
-        <v>${_--untracked-files}</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="E12" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>[ValidateSet("mode", "dummy", "dummy2")]${_--untracked-files},</v>
+      </c>
+      <c r="F12" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>if(${_--untracked-files} -ne $null){$_expression += " --untracked-files=" + ${_--untracked-files}}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75">
+      <c r="A13" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>${_--ignore-submodules}</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D13" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>[ValidateSet("mode", "dummy", "dummy2")]${_--ignore-submodules},</v>
+      </c>
+      <c r="F13" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>if(${_--ignore-submodules} -ne $null){$_expression += " --ignore-submodules=" + ${_--ignore-submodules}}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75">
+      <c r="A14" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>${_--ignored}</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="E12" s="11" t="str">
-        <f aca="false">IF(A13&lt;&gt;"",A12&amp;B12&amp;",",A12&amp;B12)</f>
-        <v>[ValidateSet("mode", "dummy", "dummy2")]${_--untracked-files},</v>
-      </c>
-      <c r="F12" s="11" t="str">
-        <f aca="false">IF(LEFT(A12,13) ="[ValidateSet(","if("&amp;B12&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C12&amp;"="&amp;""""&amp;" + "&amp;B12&amp;"}","if("&amp;B12&amp;"){$_expression += "&amp;""""&amp;" "&amp;C12&amp;""""&amp;"}")</f>
-        <v>if(${_--untracked-files} -ne $null){$_expression += " --untracked-files=" + ${_--untracked-files}}</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B13" s="11" t="str">
-        <f aca="false">"${_"&amp;C13&amp;"}"</f>
-        <v>${_--ignore-submodules}</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="E13" s="11" t="str">
-        <f aca="false">IF(A14&lt;&gt;"",A13&amp;B13&amp;",",A13&amp;B13)</f>
-        <v>[ValidateSet("mode", "dummy", "dummy2")]${_--ignore-submodules},</v>
-      </c>
-      <c r="F13" s="11" t="str">
-        <f aca="false">IF(LEFT(A13,13) ="[ValidateSet(","if("&amp;B13&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C13&amp;"="&amp;""""&amp;" + "&amp;B13&amp;"}","if("&amp;B13&amp;"){$_expression += "&amp;""""&amp;" "&amp;C13&amp;""""&amp;"}")</f>
-        <v>if(${_--ignore-submodules} -ne $null){$_expression += " --ignore-submodules=" + ${_--ignore-submodules}}</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" s="11" t="str">
-        <f aca="false">"${_"&amp;C14&amp;"}"</f>
-        <v>${_--ignored}</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>237</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="str">
-        <f aca="false">IF(A15&lt;&gt;"",A14&amp;B14&amp;",",A14&amp;B14)</f>
+        <f t="shared" si="1"/>
         <v>[switch]${_--ignored},</v>
       </c>
       <c r="F14" s="11" t="str">
-        <f aca="false">IF(LEFT(A14,13) ="[ValidateSet(","if("&amp;B14&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C14&amp;"="&amp;""""&amp;" + "&amp;B14&amp;"}","if("&amp;B14&amp;"){$_expression += "&amp;""""&amp;" "&amp;C14&amp;""""&amp;"}")</f>
+        <f t="shared" si="2"/>
         <v>if(${_--ignored}){$_expression += " --ignored"}</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="18.75">
       <c r="A15" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B15" s="11" t="str">
-        <f aca="false">"${_"&amp;C15&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>${_-z}</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="str">
-        <f aca="false">IF(A16&lt;&gt;"",A15&amp;B15&amp;",",A15&amp;B15)</f>
+        <f t="shared" si="1"/>
         <v>[switch]${_-z},</v>
       </c>
       <c r="F15" s="11" t="str">
-        <f aca="false">IF(LEFT(A15,13) ="[ValidateSet(","if("&amp;B15&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C15&amp;"="&amp;""""&amp;" + "&amp;B15&amp;"}","if("&amp;B15&amp;"){$_expression += "&amp;""""&amp;" "&amp;C15&amp;""""&amp;"}")</f>
+        <f t="shared" si="2"/>
         <v>if(${_-z}){$_expression += " -z"}</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>${_--column}</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="B16" s="11" t="str">
-        <f aca="false">"${_"&amp;C16&amp;"}"</f>
-        <v>${_--column}</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="E16" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>[ValidateSet("column", "dummy", "dummy2")]${_--column},</v>
+      </c>
+      <c r="F16" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>if(${_--column} -ne $null){$_expression += " --column=" + ${_--column}}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.75">
+      <c r="A17" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>${_--no-column}</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="E16" s="11" t="str">
-        <f aca="false">IF(A17&lt;&gt;"",A16&amp;B16&amp;",",A16&amp;B16)</f>
-        <v>[ValidateSet("column", "dummy", "dummy2")]${_--column},</v>
-      </c>
-      <c r="F16" s="11" t="str">
-        <f aca="false">IF(LEFT(A16,13) ="[ValidateSet(","if("&amp;B16&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C16&amp;"="&amp;""""&amp;" + "&amp;B16&amp;"}","if("&amp;B16&amp;"){$_expression += "&amp;""""&amp;" "&amp;C16&amp;""""&amp;"}")</f>
-        <v>if(${_--column} -ne $null){$_expression += " --column=" + ${_--column}}</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B17" s="11" t="str">
-        <f aca="false">"${_"&amp;C17&amp;"}"</f>
-        <v>${_--no-column}</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>242</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="str">
-        <f aca="false">IF(A18&lt;&gt;"",A17&amp;B17&amp;",",A17&amp;B17)</f>
+        <f t="shared" si="1"/>
         <v>[switch]${_--no-column},</v>
       </c>
       <c r="F17" s="11" t="str">
-        <f aca="false">IF(LEFT(A17,13) ="[ValidateSet(","if("&amp;B17&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C17&amp;"="&amp;""""&amp;" + "&amp;B17&amp;"}","if("&amp;B17&amp;"){$_expression += "&amp;""""&amp;" "&amp;C17&amp;""""&amp;"}")</f>
+        <f t="shared" si="2"/>
         <v>if(${_--no-column}){$_expression += " --no-column"}</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="18.75">
       <c r="A18" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B18" s="11" t="str">
-        <f aca="false">"${_"&amp;C18&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>${_--ahead-behind}</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="str">
-        <f aca="false">IF(A19&lt;&gt;"",A18&amp;B18&amp;",",A18&amp;B18)</f>
+        <f t="shared" si="1"/>
         <v>[switch]${_--ahead-behind},</v>
       </c>
       <c r="F18" s="11" t="str">
-        <f aca="false">IF(LEFT(A18,13) ="[ValidateSet(","if("&amp;B18&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C18&amp;"="&amp;""""&amp;" + "&amp;B18&amp;"}","if("&amp;B18&amp;"){$_expression += "&amp;""""&amp;" "&amp;C18&amp;""""&amp;"}")</f>
+        <f t="shared" si="2"/>
         <v>if(${_--ahead-behind}){$_expression += " --ahead-behind"}</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="18.75">
       <c r="A19" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B19" s="11" t="str">
-        <f aca="false">"${_"&amp;C19&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>${_--no-ahead-behind}</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="str">
-        <f aca="false">IF(A20&lt;&gt;"",A19&amp;B19&amp;",",A19&amp;B19)</f>
+        <f t="shared" si="1"/>
         <v>[switch]${_--no-ahead-behind},</v>
       </c>
       <c r="F19" s="11" t="str">
-        <f aca="false">IF(LEFT(A19,13) ="[ValidateSet(","if("&amp;B19&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C19&amp;"="&amp;""""&amp;" + "&amp;B19&amp;"}","if("&amp;B19&amp;"){$_expression += "&amp;""""&amp;" "&amp;C19&amp;""""&amp;"}")</f>
+        <f t="shared" si="2"/>
         <v>if(${_--no-ahead-behind}){$_expression += " --no-ahead-behind"}</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="18.75">
       <c r="A20" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B20" s="11" t="str">
-        <f aca="false">"${_"&amp;C20&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>${_--renames}</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="str">
-        <f aca="false">IF(A21&lt;&gt;"",A20&amp;B20&amp;",",A20&amp;B20)</f>
+        <f t="shared" si="1"/>
         <v>[switch]${_--renames},</v>
       </c>
       <c r="F20" s="11" t="str">
-        <f aca="false">IF(LEFT(A20,13) ="[ValidateSet(","if("&amp;B20&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C20&amp;"="&amp;""""&amp;" + "&amp;B20&amp;"}","if("&amp;B20&amp;"){$_expression += "&amp;""""&amp;" "&amp;C20&amp;""""&amp;"}")</f>
+        <f t="shared" si="2"/>
         <v>if(${_--renames}){$_expression += " --renames"}</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="18.75">
       <c r="A21" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B21" s="11" t="str">
-        <f aca="false">"${_"&amp;C21&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>${_--no-renames}</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="str">
-        <f aca="false">IF(A22&lt;&gt;"",A21&amp;B21&amp;",",A21&amp;B21)</f>
+        <f t="shared" si="1"/>
         <v>[switch]${_--no-renames},</v>
       </c>
       <c r="F21" s="11" t="str">
-        <f aca="false">IF(LEFT(A21,13) ="[ValidateSet(","if("&amp;B21&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C21&amp;"="&amp;""""&amp;" + "&amp;B21&amp;"}","if("&amp;B21&amp;"){$_expression += "&amp;""""&amp;" "&amp;C21&amp;""""&amp;"}")</f>
+        <f t="shared" si="2"/>
         <v>if(${_--no-renames}){$_expression += " --no-renames"}</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="18.75">
       <c r="A22" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>${_--find-renames}</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="B22" s="11" t="str">
-        <f aca="false">"${_"&amp;C22&amp;"}"</f>
-        <v>${_--find-renames}</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="E22" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>[ValidateSet("n", "dummy", "dummy2", "dummy2")]${_--find-renames},</v>
+      </c>
+      <c r="F22" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>if(${_--find-renames} -ne $null){$_expression += " --find-renames=" + ${_--find-renames}}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75">
+      <c r="A23" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>${_--no-lock-index}</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="E22" s="11" t="str">
-        <f aca="false">IF(A23&lt;&gt;"",A22&amp;B22&amp;",",A22&amp;B22)</f>
-        <v>[ValidateSet("n", "dummy", "dummy2", "dummy2")]${_--find-renames},</v>
-      </c>
-      <c r="F22" s="11" t="str">
-        <f aca="false">IF(LEFT(A22,13) ="[ValidateSet(","if("&amp;B22&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C22&amp;"="&amp;""""&amp;" + "&amp;B22&amp;"}","if("&amp;B22&amp;"){$_expression += "&amp;""""&amp;" "&amp;C22&amp;""""&amp;"}")</f>
-        <v>if(${_--find-renames} -ne $null){$_expression += " --find-renames=" + ${_--find-renames}}</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B23" s="11" t="str">
-        <f aca="false">"${_"&amp;C23&amp;"}"</f>
-        <v>${_--no-lock-index}</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>250</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="str">
-        <f aca="false">IF(A24&lt;&gt;"",A23&amp;B23&amp;",",A23&amp;B23)</f>
+        <f t="shared" si="1"/>
         <v>[switch]${_--no-lock-index},</v>
       </c>
       <c r="F23" s="11" t="str">
-        <f aca="false">IF(LEFT(A23,13) ="[ValidateSet(","if("&amp;B23&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C23&amp;"="&amp;""""&amp;" + "&amp;B23&amp;"}","if("&amp;B23&amp;"){$_expression += "&amp;""""&amp;" "&amp;C23&amp;""""&amp;"}")</f>
+        <f t="shared" si="2"/>
         <v>if(${_--no-lock-index}){$_expression += " --no-lock-index"}</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="18.75">
       <c r="A24" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B24" s="11" t="str">
-        <f aca="false">"${_"&amp;C24&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>${_--lock-index}</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="str">
-        <f aca="false">IF(A25&lt;&gt;"",A24&amp;B24&amp;",",A24&amp;B24)</f>
+        <f t="shared" si="1"/>
         <v>[switch]${_--lock-index}</v>
       </c>
       <c r="F24" s="11" t="str">
-        <f aca="false">IF(LEFT(A24,13) ="[ValidateSet(","if("&amp;B24&amp;" -ne $null){$_expression += "&amp;""""&amp;" "&amp;C24&amp;"="&amp;""""&amp;" + "&amp;B24&amp;"}","if("&amp;B24&amp;"){$_expression += "&amp;""""&amp;" "&amp;C24&amp;""""&amp;"}")</f>
+        <f t="shared" si="2"/>
         <v>if(${_--lock-index}){$_expression += " --lock-index"}</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:A10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.41"/>
+    <col min="1" max="1025" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1" ht="18.75">
       <c r="A3" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18.75">
+      <c r="A4" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18.75">
+      <c r="A7" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+    <row r="8" spans="1:1" ht="18.75">
+      <c r="A8" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+    <row r="9" spans="1:1" ht="18.75">
+      <c r="A9" s="8" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+    <row r="10" spans="1:1" ht="18.75">
+      <c r="A10" s="8" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Git-Complete/検証.xlsx
+++ b/Git-Complete/検証.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\Git-Complete\Git-Complete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E8A183-88AA-49FC-8560-E354A5A29F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46EE595-42F8-47FE-B0D6-409267500456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23955" yWindow="990" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="command-list.txt" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="259">
   <si>
     <r>
       <rPr>
@@ -1065,6 +1065,10 @@
   </si>
   <si>
     <t>var ary = Array.from(optsions.querySelectorAll('.hdlist1'))</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>options(description)</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1617,9 +1621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4551,10 +4555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4630,6 +4634,11 @@
     <row r="24" spans="1:2" ht="18.75">
       <c r="B24" s="8" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18.75">
+      <c r="A27" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
